--- a/output/OUTPUT4_A02.xlsx
+++ b/output/OUTPUT4_A02.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -234,8 +234,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -243,22 +246,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,11 +649,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -783,237 +774,280 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>02021G</t>
+          <t>02272G</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>02022G</t>
+          <t>02271G</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>02041G</t>
+          <t>02252G</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>02042G</t>
+          <t>02251G</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>02061G</t>
+          <t>02232G</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>02062G</t>
+          <t>02231G</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>02081G</t>
+          <t>02212G</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>02082G</t>
+          <t>02211G</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>02101G</t>
+          <t>02192G</t>
         </is>
       </c>
       <c r="L2" s="7" t="inlineStr">
         <is>
-          <t>02102G</t>
+          <t>02191G</t>
         </is>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
-          <t>02121G</t>
+          <t>02172G</t>
         </is>
       </c>
       <c r="N2" s="7" t="inlineStr">
         <is>
-          <t>02122G</t>
+          <t>02171G</t>
         </is>
       </c>
       <c r="O2" s="7" t="inlineStr">
         <is>
-          <t>02141G</t>
+          <t>02152G</t>
         </is>
       </c>
       <c r="P2" s="7" t="inlineStr">
         <is>
-          <t>02142G</t>
+          <t>02151G</t>
         </is>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>02161G</t>
+          <t>02132G</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>02162G</t>
+          <t>02131G</t>
         </is>
       </c>
       <c r="S2" s="7" t="inlineStr">
         <is>
-          <t>02181G</t>
+          <t>02112G</t>
         </is>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
-          <t>02182G</t>
+          <t>02111G</t>
         </is>
       </c>
       <c r="U2" s="7" t="inlineStr">
         <is>
-          <t>02202G</t>
+          <t>02092G</t>
         </is>
       </c>
       <c r="V2" s="7" t="inlineStr">
         <is>
-          <t>02202G</t>
+          <t>02091G</t>
         </is>
       </c>
       <c r="W2" s="7" t="inlineStr">
         <is>
-          <t>02221G</t>
+          <t>02072G</t>
         </is>
       </c>
       <c r="X2" s="7" t="inlineStr">
         <is>
-          <t>02222G</t>
+          <t>02071G</t>
         </is>
       </c>
       <c r="Y2" s="7" t="inlineStr">
         <is>
-          <t>02241G</t>
+          <t>02052G</t>
         </is>
       </c>
       <c r="Z2" s="7" t="inlineStr">
         <is>
-          <t>02242G</t>
+          <t>02051G</t>
         </is>
       </c>
       <c r="AA2" s="7" t="inlineStr">
         <is>
-          <t>02261G</t>
+          <t>02032G</t>
         </is>
       </c>
       <c r="AB2" s="7" t="inlineStr">
         <is>
-          <t>02262G</t>
+          <t>02031G</t>
         </is>
       </c>
       <c r="AC2" s="7" t="inlineStr">
         <is>
-          <t>02281G</t>
+          <t>02012G</t>
         </is>
       </c>
       <c r="AD2" s="7" t="inlineStr">
         <is>
-          <t>02282G</t>
+          <t>02011G</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="n"/>
       <c r="B3" s="10" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="25" t="inlineStr">
-        <is>
-          <t>b1000285-</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="n"/>
-      <c r="J3" s="7" t="n"/>
-      <c r="K3" s="7" t="n"/>
-      <c r="L3" s="7" t="n"/>
-      <c r="M3" s="25" t="inlineStr">
-        <is>
-          <t>M1015329-</t>
-        </is>
-      </c>
-      <c r="N3" s="25" t="inlineStr">
-        <is>
-          <t>P1099439-</t>
-        </is>
-      </c>
-      <c r="O3" s="7" t="n"/>
-      <c r="P3" s="25" t="inlineStr">
-        <is>
-          <t>P1229450-</t>
-        </is>
-      </c>
-      <c r="Q3" s="25" t="inlineStr">
-        <is>
-          <t>B1006661-</t>
-        </is>
-      </c>
-      <c r="R3" s="25" t="inlineStr">
-        <is>
-          <t>B1006310-</t>
+      <c r="C3" s="24" t="inlineStr">
+        <is>
+          <t>B1007729-</t>
+        </is>
+      </c>
+      <c r="D3" s="24" t="inlineStr">
+        <is>
+          <t>B1006463-</t>
+        </is>
+      </c>
+      <c r="E3" s="25" t="inlineStr">
+        <is>
+          <t>B2011423-</t>
+        </is>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
+        <is>
+          <t>B1006952-</t>
+        </is>
+      </c>
+      <c r="G3" s="26" t="inlineStr">
+        <is>
+          <t>B2011296-</t>
+        </is>
+      </c>
+      <c r="H3" s="26" t="inlineStr">
+        <is>
+          <t>B2000212-</t>
+        </is>
+      </c>
+      <c r="I3" s="26" t="inlineStr">
+        <is>
+          <t>b1007872-</t>
+        </is>
+      </c>
+      <c r="J3" s="26" t="inlineStr">
+        <is>
+          <t>B1008864-</t>
+        </is>
+      </c>
+      <c r="K3" s="26" t="inlineStr">
+        <is>
+          <t>B2010226-</t>
+        </is>
+      </c>
+      <c r="L3" s="26" t="inlineStr">
+        <is>
+          <t>P1205425-</t>
+        </is>
+      </c>
+      <c r="M3" s="26" t="inlineStr">
+        <is>
+          <t>T2001861-</t>
+        </is>
+      </c>
+      <c r="N3" s="26" t="inlineStr">
+        <is>
+          <t>b1008659-</t>
+        </is>
+      </c>
+      <c r="O3" s="26" t="inlineStr">
+        <is>
+          <t>b1006113-</t>
+        </is>
+      </c>
+      <c r="P3" s="26" t="inlineStr">
+        <is>
+          <t>b2009899-</t>
+        </is>
+      </c>
+      <c r="Q3" s="26" t="inlineStr">
+        <is>
+          <t>t2001872-</t>
+        </is>
+      </c>
+      <c r="R3" s="26" t="inlineStr">
+        <is>
+          <t>B1004002-</t>
         </is>
       </c>
       <c r="S3" s="26" t="inlineStr">
         <is>
-          <t>B2000542-
-M1017606-</t>
-        </is>
-      </c>
-      <c r="T3" s="25" t="inlineStr">
-        <is>
-          <t>M1016836-</t>
-        </is>
-      </c>
-      <c r="U3" s="25" t="inlineStr">
-        <is>
-          <t>P1227409-</t>
-        </is>
-      </c>
-      <c r="V3" s="25" t="inlineStr">
-        <is>
-          <t>P1227409-</t>
-        </is>
-      </c>
-      <c r="W3" s="7" t="n"/>
-      <c r="X3" s="25" t="inlineStr">
-        <is>
-          <t>B1007978-</t>
-        </is>
-      </c>
-      <c r="Y3" s="25" t="inlineStr">
-        <is>
-          <t>b1008375-</t>
-        </is>
-      </c>
-      <c r="Z3" s="25" t="inlineStr">
-        <is>
-          <t>b1007263-</t>
-        </is>
-      </c>
-      <c r="AA3" s="25" t="inlineStr">
-        <is>
-          <t>b2011071-</t>
-        </is>
-      </c>
-      <c r="AB3" s="25" t="inlineStr">
-        <is>
-          <t>T1000938-</t>
-        </is>
-      </c>
-      <c r="AC3" s="7" t="n"/>
-      <c r="AD3" s="7" t="n"/>
+          <t>b1008721-</t>
+        </is>
+      </c>
+      <c r="T3" s="7" t="n"/>
+      <c r="U3" s="26" t="inlineStr">
+        <is>
+          <t>b1007943-</t>
+        </is>
+      </c>
+      <c r="V3" s="26" t="inlineStr">
+        <is>
+          <t>T1000760-</t>
+        </is>
+      </c>
+      <c r="W3" s="26" t="inlineStr">
+        <is>
+          <t>B1006422-</t>
+        </is>
+      </c>
+      <c r="X3" s="26" t="inlineStr">
+        <is>
+          <t>b1004207-</t>
+        </is>
+      </c>
+      <c r="Y3" s="7" t="n"/>
+      <c r="Z3" s="26" t="inlineStr">
+        <is>
+          <t>P1070759-</t>
+        </is>
+      </c>
+      <c r="AA3" s="26" t="inlineStr">
+        <is>
+          <t>b1005712-</t>
+        </is>
+      </c>
+      <c r="AB3" s="26" t="inlineStr">
+        <is>
+          <t>B2000979-</t>
+        </is>
+      </c>
+      <c r="AC3" s="26" t="inlineStr">
+        <is>
+          <t>B2010855-</t>
+        </is>
+      </c>
+      <c r="AD3" s="26" t="inlineStr">
+        <is>
+          <t>B1005540-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="n"/>
@@ -1024,258 +1058,287 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>02021F</t>
+          <t>02272F</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>02022F</t>
+          <t>02271F</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>02041F</t>
+          <t>02252F</t>
         </is>
       </c>
       <c r="F4" s="7" t="inlineStr">
         <is>
-          <t>02042F</t>
+          <t>02251F</t>
         </is>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
-          <t>02061F</t>
+          <t>02232F</t>
         </is>
       </c>
       <c r="H4" s="7" t="inlineStr">
         <is>
-          <t>02062F</t>
+          <t>02231F</t>
         </is>
       </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
-          <t>02081F</t>
+          <t>02212F</t>
         </is>
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
-          <t>02082F</t>
+          <t>02211F</t>
         </is>
       </c>
       <c r="K4" s="7" t="inlineStr">
         <is>
-          <t>02101F</t>
+          <t>02192F</t>
         </is>
       </c>
       <c r="L4" s="7" t="inlineStr">
         <is>
-          <t>02102F</t>
+          <t>02191F</t>
         </is>
       </c>
       <c r="M4" s="7" t="inlineStr">
         <is>
-          <t>02121F</t>
+          <t>02172F</t>
         </is>
       </c>
       <c r="N4" s="7" t="inlineStr">
         <is>
-          <t>02122F</t>
+          <t>02171F</t>
         </is>
       </c>
       <c r="O4" s="7" t="inlineStr">
         <is>
-          <t>02141F</t>
+          <t>02152F</t>
         </is>
       </c>
       <c r="P4" s="7" t="inlineStr">
         <is>
-          <t>02142F</t>
+          <t>02151F</t>
         </is>
       </c>
       <c r="Q4" s="7" t="inlineStr">
         <is>
-          <t>02161F</t>
+          <t>02132F</t>
         </is>
       </c>
       <c r="R4" s="7" t="inlineStr">
         <is>
-          <t>02162F</t>
+          <t>02131F</t>
         </is>
       </c>
       <c r="S4" s="7" t="inlineStr">
         <is>
-          <t>02181F</t>
+          <t>02112F</t>
         </is>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
-          <t>02182F</t>
+          <t>02111F</t>
         </is>
       </c>
       <c r="U4" s="7" t="inlineStr">
         <is>
-          <t>02202F</t>
+          <t>02092F</t>
         </is>
       </c>
       <c r="V4" s="7" t="inlineStr">
         <is>
-          <t>02202F</t>
+          <t>02091F</t>
         </is>
       </c>
       <c r="W4" s="7" t="inlineStr">
         <is>
-          <t>02221F</t>
+          <t>02072F</t>
         </is>
       </c>
       <c r="X4" s="7" t="inlineStr">
         <is>
-          <t>02222F</t>
+          <t>02071F</t>
         </is>
       </c>
       <c r="Y4" s="7" t="inlineStr">
         <is>
-          <t>02241F</t>
+          <t>02052F</t>
         </is>
       </c>
       <c r="Z4" s="7" t="inlineStr">
         <is>
-          <t>02242F</t>
+          <t>02051F</t>
         </is>
       </c>
       <c r="AA4" s="7" t="inlineStr">
         <is>
-          <t>02261F</t>
+          <t>02032F</t>
         </is>
       </c>
       <c r="AB4" s="7" t="inlineStr">
         <is>
-          <t>02262F</t>
+          <t>02031F</t>
         </is>
       </c>
       <c r="AC4" s="7" t="inlineStr">
         <is>
-          <t>02281F</t>
+          <t>02012F</t>
         </is>
       </c>
       <c r="AD4" s="7" t="inlineStr">
         <is>
-          <t>02282F</t>
+          <t>02011F</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="n"/>
       <c r="B5" s="10" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="27" t="inlineStr">
-        <is>
-          <t>B2000359-</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="25" t="inlineStr">
-        <is>
-          <t>B1000171-</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n"/>
-      <c r="H5" s="25" t="inlineStr">
-        <is>
-          <t>B2010341-</t>
-        </is>
-      </c>
-      <c r="I5" s="25" t="inlineStr">
-        <is>
-          <t>b1004586-</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="25" t="inlineStr">
-        <is>
-          <t>P1224910-</t>
-        </is>
-      </c>
-      <c r="L5" s="25" t="inlineStr">
-        <is>
-          <t>B1007280-</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="n"/>
-      <c r="N5" s="25" t="inlineStr">
-        <is>
-          <t>B1008885-</t>
-        </is>
-      </c>
-      <c r="O5" s="25" t="inlineStr">
-        <is>
-          <t>M1012922-</t>
-        </is>
-      </c>
-      <c r="P5" s="7" t="n"/>
-      <c r="Q5" s="25" t="inlineStr">
-        <is>
-          <t>B2010740-</t>
-        </is>
-      </c>
-      <c r="R5" s="25" t="inlineStr">
-        <is>
-          <t>B2000354-</t>
-        </is>
-      </c>
-      <c r="S5" s="25" t="inlineStr">
-        <is>
-          <t>B2010856-</t>
-        </is>
-      </c>
-      <c r="T5" s="25" t="inlineStr">
-        <is>
-          <t>t1000202-</t>
-        </is>
-      </c>
-      <c r="U5" s="25" t="inlineStr">
-        <is>
-          <t>T2001293-</t>
-        </is>
-      </c>
-      <c r="V5" s="25" t="inlineStr">
-        <is>
-          <t>T2001293-</t>
-        </is>
-      </c>
-      <c r="W5" s="25" t="inlineStr">
-        <is>
-          <t>P1222622-</t>
-        </is>
-      </c>
-      <c r="X5" s="25" t="inlineStr">
-        <is>
-          <t>T1000876-</t>
-        </is>
-      </c>
-      <c r="Y5" s="25" t="inlineStr">
-        <is>
-          <t>T2001004-</t>
-        </is>
-      </c>
-      <c r="Z5" s="7" t="n"/>
-      <c r="AA5" s="25" t="inlineStr">
-        <is>
-          <t>b1008627-</t>
-        </is>
-      </c>
-      <c r="AB5" s="25" t="inlineStr">
-        <is>
-          <t>B1008651-</t>
-        </is>
-      </c>
-      <c r="AC5" s="25" t="inlineStr">
-        <is>
-          <t>t1000199-</t>
-        </is>
-      </c>
-      <c r="AD5" s="25" t="inlineStr">
-        <is>
-          <t>B2000230-</t>
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>B1006349-</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="inlineStr">
+        <is>
+          <t>B2010963-</t>
+        </is>
+      </c>
+      <c r="E5" s="25" t="inlineStr">
+        <is>
+          <t>M1011065-</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="inlineStr">
+        <is>
+          <t>B2011483-</t>
+        </is>
+      </c>
+      <c r="G5" s="26" t="inlineStr">
+        <is>
+          <t>B2011487-</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="inlineStr">
+        <is>
+          <t>T2002847-</t>
+        </is>
+      </c>
+      <c r="I5" s="26" t="inlineStr">
+        <is>
+          <t>B2011484-</t>
+        </is>
+      </c>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>T1001290-</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="inlineStr">
+        <is>
+          <t>B2011485-</t>
+        </is>
+      </c>
+      <c r="L5" s="26" t="inlineStr">
+        <is>
+          <t>B2011482-</t>
+        </is>
+      </c>
+      <c r="M5" s="26" t="inlineStr">
+        <is>
+          <t>B2011312-</t>
+        </is>
+      </c>
+      <c r="N5" s="26" t="inlineStr">
+        <is>
+          <t>B2010899-</t>
+        </is>
+      </c>
+      <c r="O5" s="27" t="inlineStr">
+        <is>
+          <t>B1000292-
+b1008886-</t>
+        </is>
+      </c>
+      <c r="P5" s="26" t="inlineStr">
+        <is>
+          <t>B1000917-</t>
+        </is>
+      </c>
+      <c r="Q5" s="26" t="inlineStr">
+        <is>
+          <t>B1005251-</t>
+        </is>
+      </c>
+      <c r="R5" s="26" t="inlineStr">
+        <is>
+          <t>B2010781-</t>
+        </is>
+      </c>
+      <c r="S5" s="26" t="inlineStr">
+        <is>
+          <t>B2010862-</t>
+        </is>
+      </c>
+      <c r="T5" s="26" t="inlineStr">
+        <is>
+          <t>E1000158-</t>
+        </is>
+      </c>
+      <c r="U5" s="26" t="inlineStr">
+        <is>
+          <t>B1007838-</t>
+        </is>
+      </c>
+      <c r="V5" s="26" t="inlineStr">
+        <is>
+          <t>B2000315-</t>
+        </is>
+      </c>
+      <c r="W5" s="26" t="inlineStr">
+        <is>
+          <t>B2010861-</t>
+        </is>
+      </c>
+      <c r="X5" s="26" t="inlineStr">
+        <is>
+          <t>B1007150-</t>
+        </is>
+      </c>
+      <c r="Y5" s="26" t="inlineStr">
+        <is>
+          <t>B2000282-</t>
+        </is>
+      </c>
+      <c r="Z5" s="26" t="inlineStr">
+        <is>
+          <t>B2000160-</t>
+        </is>
+      </c>
+      <c r="AA5" s="26" t="inlineStr">
+        <is>
+          <t>B2000557-</t>
+        </is>
+      </c>
+      <c r="AB5" s="26" t="inlineStr">
+        <is>
+          <t>B1007327-</t>
+        </is>
+      </c>
+      <c r="AC5" s="26" t="inlineStr">
+        <is>
+          <t>P1232633-</t>
+        </is>
+      </c>
+      <c r="AD5" s="26" t="inlineStr">
+        <is>
+          <t>B2011464-</t>
         </is>
       </c>
     </row>
@@ -1288,274 +1351,274 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>02021E</t>
+          <t>02272E</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>02022E</t>
+          <t>02271E</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>02041E</t>
+          <t>02252E</t>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t>02042E</t>
+          <t>02251E</t>
         </is>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
-          <t>02061E</t>
+          <t>02232E</t>
         </is>
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t>02062E</t>
+          <t>02231E</t>
         </is>
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>02081E</t>
+          <t>02212E</t>
         </is>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
-          <t>02082E</t>
+          <t>02211E</t>
         </is>
       </c>
       <c r="K6" s="7" t="inlineStr">
         <is>
-          <t>02101E</t>
+          <t>02192E</t>
         </is>
       </c>
       <c r="L6" s="7" t="inlineStr">
         <is>
-          <t>02102E</t>
+          <t>02191E</t>
         </is>
       </c>
       <c r="M6" s="7" t="inlineStr">
         <is>
-          <t>02121E</t>
+          <t>02172E</t>
         </is>
       </c>
       <c r="N6" s="7" t="inlineStr">
         <is>
-          <t>02122E</t>
+          <t>02171E</t>
         </is>
       </c>
       <c r="O6" s="7" t="inlineStr">
         <is>
-          <t>02141E</t>
+          <t>02152E</t>
         </is>
       </c>
       <c r="P6" s="7" t="inlineStr">
         <is>
-          <t>02142E</t>
+          <t>02151E</t>
         </is>
       </c>
       <c r="Q6" s="7" t="inlineStr">
         <is>
-          <t>02161E</t>
+          <t>02132E</t>
         </is>
       </c>
       <c r="R6" s="7" t="inlineStr">
         <is>
-          <t>02162E</t>
+          <t>02131E</t>
         </is>
       </c>
       <c r="S6" s="7" t="inlineStr">
         <is>
-          <t>02181E</t>
+          <t>02112E</t>
         </is>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
-          <t>02182E</t>
+          <t>02111E</t>
         </is>
       </c>
       <c r="U6" s="7" t="inlineStr">
         <is>
-          <t>02202E</t>
+          <t>02092E</t>
         </is>
       </c>
       <c r="V6" s="7" t="inlineStr">
         <is>
-          <t>02202E</t>
+          <t>02091E</t>
         </is>
       </c>
       <c r="W6" s="7" t="inlineStr">
         <is>
-          <t>02221E</t>
+          <t>02072E</t>
         </is>
       </c>
       <c r="X6" s="7" t="inlineStr">
         <is>
-          <t>02222E</t>
+          <t>02071E</t>
         </is>
       </c>
       <c r="Y6" s="7" t="inlineStr">
         <is>
-          <t>02241E</t>
+          <t>02052E</t>
         </is>
       </c>
       <c r="Z6" s="7" t="inlineStr">
         <is>
-          <t>02242E</t>
+          <t>02051E</t>
         </is>
       </c>
       <c r="AA6" s="7" t="inlineStr">
         <is>
-          <t>02261E</t>
+          <t>02032E</t>
         </is>
       </c>
       <c r="AB6" s="7" t="inlineStr">
         <is>
-          <t>02262E</t>
+          <t>02031E</t>
         </is>
       </c>
       <c r="AC6" s="7" t="inlineStr">
         <is>
-          <t>02281E</t>
+          <t>02012E</t>
         </is>
       </c>
       <c r="AD6" s="7" t="inlineStr">
         <is>
-          <t>02282E</t>
+          <t>02011E</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="22" t="n"/>
       <c r="B7" s="10" t="n"/>
-      <c r="C7" s="27" t="inlineStr">
-        <is>
-          <t>B2000131-</t>
-        </is>
-      </c>
-      <c r="D7" s="27" t="inlineStr">
-        <is>
-          <t>B2010416-</t>
-        </is>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>B2010280-</t>
-        </is>
-      </c>
-      <c r="F7" s="25" t="inlineStr">
-        <is>
-          <t>B2010237-</t>
-        </is>
-      </c>
-      <c r="G7" s="25" t="inlineStr">
-        <is>
-          <t>T1000695-</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="25" t="inlineStr">
-        <is>
-          <t>B1005394-</t>
-        </is>
-      </c>
-      <c r="J7" s="25" t="inlineStr">
-        <is>
-          <t>B1008974-</t>
-        </is>
-      </c>
-      <c r="K7" s="25" t="inlineStr">
-        <is>
-          <t>t1000182-</t>
-        </is>
-      </c>
-      <c r="L7" s="25" t="inlineStr">
-        <is>
-          <t>W1000052-</t>
-        </is>
-      </c>
-      <c r="M7" s="25" t="inlineStr">
-        <is>
-          <t>B2000527-</t>
-        </is>
-      </c>
-      <c r="N7" s="7" t="n"/>
-      <c r="O7" s="25" t="inlineStr">
-        <is>
-          <t>T2002333-</t>
-        </is>
-      </c>
-      <c r="P7" s="25" t="inlineStr">
-        <is>
-          <t>T1001015-</t>
-        </is>
-      </c>
-      <c r="Q7" s="25" t="inlineStr">
-        <is>
-          <t>B1007938-</t>
-        </is>
-      </c>
-      <c r="R7" s="25" t="inlineStr">
-        <is>
-          <t>B1008857-</t>
-        </is>
-      </c>
-      <c r="S7" s="25" t="inlineStr">
-        <is>
-          <t>B2000570-</t>
-        </is>
-      </c>
-      <c r="T7" s="25" t="inlineStr">
-        <is>
-          <t>P1077205-</t>
-        </is>
-      </c>
-      <c r="U7" s="25" t="inlineStr">
-        <is>
-          <t>B2000567-</t>
-        </is>
-      </c>
-      <c r="V7" s="25" t="inlineStr">
-        <is>
-          <t>B2000567-</t>
-        </is>
-      </c>
-      <c r="W7" s="25" t="inlineStr">
-        <is>
-          <t>B2010723-</t>
-        </is>
-      </c>
-      <c r="X7" s="25" t="inlineStr">
-        <is>
-          <t>B2010173-</t>
-        </is>
-      </c>
-      <c r="Y7" s="25" t="inlineStr">
-        <is>
-          <t>B2011329-</t>
-        </is>
-      </c>
-      <c r="Z7" s="7" t="n"/>
-      <c r="AA7" s="25" t="inlineStr">
-        <is>
-          <t>B2000666-</t>
-        </is>
-      </c>
-      <c r="AB7" s="25" t="inlineStr">
-        <is>
-          <t>B2010394-</t>
-        </is>
-      </c>
-      <c r="AC7" s="25" t="inlineStr">
-        <is>
-          <t>B1004668-</t>
-        </is>
-      </c>
-      <c r="AD7" s="25" t="inlineStr">
-        <is>
-          <t>B1008503-</t>
+      <c r="C7" s="24" t="inlineStr">
+        <is>
+          <t>B1006173-</t>
+        </is>
+      </c>
+      <c r="D7" s="24" t="inlineStr">
+        <is>
+          <t>B2011287-</t>
+        </is>
+      </c>
+      <c r="E7" s="25" t="inlineStr">
+        <is>
+          <t>B2000856-</t>
+        </is>
+      </c>
+      <c r="F7" s="26" t="inlineStr">
+        <is>
+          <t>b1007795-</t>
+        </is>
+      </c>
+      <c r="G7" s="26" t="inlineStr">
+        <is>
+          <t>b1007845-</t>
+        </is>
+      </c>
+      <c r="H7" s="26" t="inlineStr">
+        <is>
+          <t>M1016702-</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="n"/>
+      <c r="J7" s="26" t="inlineStr">
+        <is>
+          <t>B1006792-</t>
+        </is>
+      </c>
+      <c r="K7" s="26" t="inlineStr">
+        <is>
+          <t>X1000182-</t>
+        </is>
+      </c>
+      <c r="L7" s="26" t="inlineStr">
+        <is>
+          <t>T1000440-</t>
+        </is>
+      </c>
+      <c r="M7" s="26" t="inlineStr">
+        <is>
+          <t>B1000275-</t>
+        </is>
+      </c>
+      <c r="N7" s="26" t="inlineStr">
+        <is>
+          <t>X1000232-</t>
+        </is>
+      </c>
+      <c r="O7" s="7" t="n"/>
+      <c r="P7" s="26" t="inlineStr">
+        <is>
+          <t>T1000964-</t>
+        </is>
+      </c>
+      <c r="Q7" s="26" t="inlineStr">
+        <is>
+          <t>B2010278-</t>
+        </is>
+      </c>
+      <c r="R7" s="26" t="inlineStr">
+        <is>
+          <t>t2001308-</t>
+        </is>
+      </c>
+      <c r="S7" s="26" t="inlineStr">
+        <is>
+          <t>B2011276-</t>
+        </is>
+      </c>
+      <c r="T7" s="26" t="inlineStr">
+        <is>
+          <t>T1000022-</t>
+        </is>
+      </c>
+      <c r="U7" s="26" t="inlineStr">
+        <is>
+          <t>B2010147-</t>
+        </is>
+      </c>
+      <c r="V7" s="7" t="n"/>
+      <c r="W7" s="26" t="inlineStr">
+        <is>
+          <t>B2011124-</t>
+        </is>
+      </c>
+      <c r="X7" s="26" t="inlineStr">
+        <is>
+          <t>B1005932-</t>
+        </is>
+      </c>
+      <c r="Y7" s="26" t="inlineStr">
+        <is>
+          <t>B2010853-</t>
+        </is>
+      </c>
+      <c r="Z7" s="26" t="inlineStr">
+        <is>
+          <t>B1007936-</t>
+        </is>
+      </c>
+      <c r="AA7" s="26" t="inlineStr">
+        <is>
+          <t>B2010281-</t>
+        </is>
+      </c>
+      <c r="AB7" s="26" t="inlineStr">
+        <is>
+          <t>p1206216-</t>
+        </is>
+      </c>
+      <c r="AC7" s="26" t="inlineStr">
+        <is>
+          <t>M1013805-</t>
+        </is>
+      </c>
+      <c r="AD7" s="26" t="inlineStr">
+        <is>
+          <t>B2012250-</t>
         </is>
       </c>
     </row>
@@ -1568,274 +1631,286 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>02021D</t>
+          <t>02272D</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>02022D</t>
+          <t>02271D</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>02041D</t>
+          <t>02252D</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>02042D</t>
+          <t>02251D</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>02061D</t>
+          <t>02232D</t>
         </is>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>02062D</t>
+          <t>02231D</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>02081D</t>
+          <t>02212D</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr">
         <is>
-          <t>02082D</t>
+          <t>02211D</t>
         </is>
       </c>
       <c r="K8" s="7" t="inlineStr">
         <is>
-          <t>02101D</t>
+          <t>02192D</t>
         </is>
       </c>
       <c r="L8" s="7" t="inlineStr">
         <is>
-          <t>02102D</t>
+          <t>02191D</t>
         </is>
       </c>
       <c r="M8" s="7" t="inlineStr">
         <is>
-          <t>02121D</t>
+          <t>02172D</t>
         </is>
       </c>
       <c r="N8" s="7" t="inlineStr">
         <is>
-          <t>02122D</t>
+          <t>02171D</t>
         </is>
       </c>
       <c r="O8" s="7" t="inlineStr">
         <is>
-          <t>02141D</t>
+          <t>02152D</t>
         </is>
       </c>
       <c r="P8" s="7" t="inlineStr">
         <is>
-          <t>02142D</t>
+          <t>02151D</t>
         </is>
       </c>
       <c r="Q8" s="7" t="inlineStr">
         <is>
-          <t>02161D</t>
+          <t>02132D</t>
         </is>
       </c>
       <c r="R8" s="7" t="inlineStr">
         <is>
-          <t>02162D</t>
+          <t>02131D</t>
         </is>
       </c>
       <c r="S8" s="7" t="inlineStr">
         <is>
-          <t>02181D</t>
+          <t>02112D</t>
         </is>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
-          <t>02182D</t>
+          <t>02111D</t>
         </is>
       </c>
       <c r="U8" s="7" t="inlineStr">
         <is>
-          <t>02202D</t>
+          <t>02092D</t>
         </is>
       </c>
       <c r="V8" s="7" t="inlineStr">
         <is>
-          <t>02202D</t>
+          <t>02091D</t>
         </is>
       </c>
       <c r="W8" s="7" t="inlineStr">
         <is>
-          <t>02221D</t>
+          <t>02072D</t>
         </is>
       </c>
       <c r="X8" s="7" t="inlineStr">
         <is>
-          <t>02222D</t>
+          <t>02071D</t>
         </is>
       </c>
       <c r="Y8" s="7" t="inlineStr">
         <is>
-          <t>02241D</t>
+          <t>02052D</t>
         </is>
       </c>
       <c r="Z8" s="7" t="inlineStr">
         <is>
-          <t>02242D</t>
+          <t>02051D</t>
         </is>
       </c>
       <c r="AA8" s="7" t="inlineStr">
         <is>
-          <t>02261D</t>
+          <t>02032D</t>
         </is>
       </c>
       <c r="AB8" s="7" t="inlineStr">
         <is>
-          <t>02262D</t>
+          <t>02031D</t>
         </is>
       </c>
       <c r="AC8" s="7" t="inlineStr">
         <is>
-          <t>02281D</t>
+          <t>02012D</t>
         </is>
       </c>
       <c r="AD8" s="7" t="inlineStr">
         <is>
-          <t>02282D</t>
+          <t>02011D</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="22" t="n"/>
       <c r="B9" s="10" t="n"/>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>B2010174-</t>
-        </is>
-      </c>
-      <c r="D9" s="27" t="inlineStr">
-        <is>
-          <t>B2010860-</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>B2010904-</t>
-        </is>
-      </c>
-      <c r="F9" s="25" t="inlineStr">
-        <is>
-          <t>B2010804-</t>
-        </is>
-      </c>
-      <c r="G9" s="25" t="inlineStr">
-        <is>
-          <t>b1009024-</t>
-        </is>
-      </c>
-      <c r="H9" s="25" t="inlineStr">
-        <is>
-          <t>B2010641-</t>
-        </is>
-      </c>
-      <c r="I9" s="25" t="inlineStr">
-        <is>
-          <t>T1000164-</t>
-        </is>
-      </c>
-      <c r="J9" s="25" t="inlineStr">
-        <is>
-          <t>B1005488-</t>
-        </is>
-      </c>
-      <c r="K9" s="25" t="inlineStr">
-        <is>
-          <t>b2010176-</t>
-        </is>
-      </c>
-      <c r="L9" s="25" t="inlineStr">
-        <is>
-          <t>T2001271-</t>
-        </is>
-      </c>
-      <c r="M9" s="25" t="inlineStr">
-        <is>
-          <t>B2000163-</t>
-        </is>
-      </c>
-      <c r="N9" s="25" t="inlineStr">
-        <is>
-          <t>B1006320-</t>
-        </is>
-      </c>
-      <c r="O9" s="25" t="inlineStr">
-        <is>
-          <t>B1008805-</t>
-        </is>
-      </c>
-      <c r="P9" s="25" t="inlineStr">
-        <is>
-          <t>B1007262-</t>
-        </is>
-      </c>
-      <c r="Q9" s="25" t="inlineStr">
-        <is>
-          <t>M1010783-</t>
-        </is>
-      </c>
-      <c r="R9" s="25" t="inlineStr">
-        <is>
-          <t>B2010820-</t>
-        </is>
-      </c>
-      <c r="S9" s="25" t="inlineStr">
-        <is>
-          <t>B1001265-</t>
-        </is>
-      </c>
-      <c r="T9" s="25" t="inlineStr">
-        <is>
-          <t>B2000337-</t>
-        </is>
-      </c>
-      <c r="U9" s="7" t="n"/>
-      <c r="V9" s="7" t="n"/>
-      <c r="W9" s="25" t="inlineStr">
-        <is>
-          <t>B2010178-</t>
-        </is>
-      </c>
-      <c r="X9" s="25" t="inlineStr">
-        <is>
-          <t>B2011194-</t>
-        </is>
-      </c>
-      <c r="Y9" s="25" t="inlineStr">
-        <is>
-          <t>b1006182-</t>
-        </is>
-      </c>
-      <c r="Z9" s="25" t="inlineStr">
-        <is>
-          <t>t2001315-</t>
-        </is>
-      </c>
-      <c r="AA9" s="25" t="inlineStr">
-        <is>
-          <t>B2011222-</t>
-        </is>
-      </c>
-      <c r="AB9" s="7" t="n"/>
-      <c r="AC9" s="25" t="inlineStr">
-        <is>
-          <t>B2011199-</t>
-        </is>
-      </c>
-      <c r="AD9" s="25" t="inlineStr">
-        <is>
-          <t>t2001531-</t>
+      <c r="C9" s="24" t="inlineStr">
+        <is>
+          <t>B1005012-</t>
+        </is>
+      </c>
+      <c r="D9" s="24" t="inlineStr">
+        <is>
+          <t>B2010498-</t>
+        </is>
+      </c>
+      <c r="E9" s="25" t="inlineStr">
+        <is>
+          <t>b2009992-</t>
+        </is>
+      </c>
+      <c r="F9" s="26" t="inlineStr">
+        <is>
+          <t>b1006966-</t>
+        </is>
+      </c>
+      <c r="G9" s="26" t="inlineStr">
+        <is>
+          <t>B2010724-</t>
+        </is>
+      </c>
+      <c r="H9" s="26" t="inlineStr">
+        <is>
+          <t>B2010086-</t>
+        </is>
+      </c>
+      <c r="I9" s="26" t="inlineStr">
+        <is>
+          <t>B2012249-</t>
+        </is>
+      </c>
+      <c r="J9" s="26" t="inlineStr">
+        <is>
+          <t>B2011407-</t>
+        </is>
+      </c>
+      <c r="K9" s="26" t="inlineStr">
+        <is>
+          <t>b2009987-</t>
+        </is>
+      </c>
+      <c r="L9" s="26" t="inlineStr">
+        <is>
+          <t>B2010782-</t>
+        </is>
+      </c>
+      <c r="M9" s="26" t="inlineStr">
+        <is>
+          <t>B2010800-</t>
+        </is>
+      </c>
+      <c r="N9" s="26" t="inlineStr">
+        <is>
+          <t>T2002645-</t>
+        </is>
+      </c>
+      <c r="O9" s="26" t="inlineStr">
+        <is>
+          <t>T2002732-</t>
+        </is>
+      </c>
+      <c r="P9" s="26" t="inlineStr">
+        <is>
+          <t>B2011256-</t>
+        </is>
+      </c>
+      <c r="Q9" s="26" t="inlineStr">
+        <is>
+          <t>B2011264-</t>
+        </is>
+      </c>
+      <c r="R9" s="26" t="inlineStr">
+        <is>
+          <t>t2003014-</t>
+        </is>
+      </c>
+      <c r="S9" s="26" t="inlineStr">
+        <is>
+          <t>B2012239-</t>
+        </is>
+      </c>
+      <c r="T9" s="26" t="inlineStr">
+        <is>
+          <t>X1000206-</t>
+        </is>
+      </c>
+      <c r="U9" s="26" t="inlineStr">
+        <is>
+          <t>B2000484-</t>
+        </is>
+      </c>
+      <c r="V9" s="26" t="inlineStr">
+        <is>
+          <t>B2010731-</t>
+        </is>
+      </c>
+      <c r="W9" s="26" t="inlineStr">
+        <is>
+          <t>b2000024-</t>
+        </is>
+      </c>
+      <c r="X9" s="26" t="inlineStr">
+        <is>
+          <t>X1000252-</t>
+        </is>
+      </c>
+      <c r="Y9" s="26" t="inlineStr">
+        <is>
+          <t>b1006126-</t>
+        </is>
+      </c>
+      <c r="Z9" s="26" t="inlineStr">
+        <is>
+          <t>B1008462-</t>
+        </is>
+      </c>
+      <c r="AA9" s="26" t="inlineStr">
+        <is>
+          <t>T2000145-</t>
+        </is>
+      </c>
+      <c r="AB9" s="26" t="inlineStr">
+        <is>
+          <t>B2010638-</t>
+        </is>
+      </c>
+      <c r="AC9" s="26" t="inlineStr">
+        <is>
+          <t>t2000189-</t>
+        </is>
+      </c>
+      <c r="AD9" s="26" t="inlineStr">
+        <is>
+          <t>B2010474-</t>
         </is>
       </c>
     </row>
@@ -1848,286 +1923,286 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>02021C</t>
+          <t>02272C</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>02022C</t>
+          <t>02271C</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>02041C</t>
+          <t>02252C</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>02042C</t>
+          <t>02251C</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>02061C</t>
+          <t>02232C</t>
         </is>
       </c>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>02062C</t>
+          <t>02231C</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
         <is>
-          <t>02081C</t>
+          <t>02212C</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr">
         <is>
-          <t>02082C</t>
+          <t>02211C</t>
         </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
-          <t>02101C</t>
+          <t>02192C</t>
         </is>
       </c>
       <c r="L10" s="7" t="inlineStr">
         <is>
-          <t>02102C</t>
+          <t>02191C</t>
         </is>
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>02121C</t>
+          <t>02172C</t>
         </is>
       </c>
       <c r="N10" s="7" t="inlineStr">
         <is>
-          <t>02122C</t>
+          <t>02171C</t>
         </is>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
-          <t>02141C</t>
+          <t>02152C</t>
         </is>
       </c>
       <c r="P10" s="7" t="inlineStr">
         <is>
-          <t>02142C</t>
+          <t>02151C</t>
         </is>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>02161C</t>
+          <t>02132C</t>
         </is>
       </c>
       <c r="R10" s="7" t="inlineStr">
         <is>
-          <t>02162C</t>
+          <t>02131C</t>
         </is>
       </c>
       <c r="S10" s="7" t="inlineStr">
         <is>
-          <t>02181C</t>
+          <t>02112C</t>
         </is>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
-          <t>02182C</t>
+          <t>02111C</t>
         </is>
       </c>
       <c r="U10" s="7" t="inlineStr">
         <is>
-          <t>02202C</t>
+          <t>02092C</t>
         </is>
       </c>
       <c r="V10" s="7" t="inlineStr">
         <is>
-          <t>02202C</t>
+          <t>02091C</t>
         </is>
       </c>
       <c r="W10" s="7" t="inlineStr">
         <is>
-          <t>02221C</t>
+          <t>02072C</t>
         </is>
       </c>
       <c r="X10" s="7" t="inlineStr">
         <is>
-          <t>02222C</t>
+          <t>02071C</t>
         </is>
       </c>
       <c r="Y10" s="7" t="inlineStr">
         <is>
-          <t>02241C</t>
+          <t>02052C</t>
         </is>
       </c>
       <c r="Z10" s="7" t="inlineStr">
         <is>
-          <t>02242C</t>
+          <t>02051C</t>
         </is>
       </c>
       <c r="AA10" s="7" t="inlineStr">
         <is>
-          <t>02261C</t>
+          <t>02032C</t>
         </is>
       </c>
       <c r="AB10" s="7" t="inlineStr">
         <is>
-          <t>02262C</t>
+          <t>02031C</t>
         </is>
       </c>
       <c r="AC10" s="7" t="inlineStr">
         <is>
-          <t>02281C</t>
+          <t>02012C</t>
         </is>
       </c>
       <c r="AD10" s="7" t="inlineStr">
         <is>
-          <t>02282C</t>
+          <t>02011C</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="22" t="n"/>
       <c r="B11" s="10" t="n"/>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>B2000154-</t>
-        </is>
-      </c>
-      <c r="D11" s="27" t="inlineStr">
-        <is>
-          <t>B2000303-</t>
-        </is>
-      </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>B2010913-</t>
-        </is>
-      </c>
-      <c r="F11" s="25" t="inlineStr">
-        <is>
-          <t>B1008930-</t>
-        </is>
-      </c>
-      <c r="G11" s="25" t="inlineStr">
-        <is>
-          <t>B2000389-</t>
-        </is>
-      </c>
-      <c r="H11" s="25" t="inlineStr">
-        <is>
-          <t>b1008816-</t>
-        </is>
-      </c>
-      <c r="I11" s="25" t="inlineStr">
-        <is>
-          <t>B2000340-</t>
-        </is>
-      </c>
-      <c r="J11" s="25" t="inlineStr">
-        <is>
-          <t>B2010796-</t>
-        </is>
-      </c>
-      <c r="K11" s="25" t="inlineStr">
-        <is>
-          <t>b2000535-</t>
-        </is>
-      </c>
-      <c r="L11" s="25" t="inlineStr">
-        <is>
-          <t>B2010803-</t>
-        </is>
-      </c>
-      <c r="M11" s="25" t="inlineStr">
-        <is>
-          <t>b2010041-</t>
-        </is>
-      </c>
-      <c r="N11" s="25" t="inlineStr">
-        <is>
-          <t>T2001270-</t>
-        </is>
-      </c>
-      <c r="O11" s="25" t="inlineStr">
-        <is>
-          <t>t2001440-</t>
-        </is>
-      </c>
-      <c r="P11" s="25" t="inlineStr">
-        <is>
-          <t>b1008802-</t>
-        </is>
-      </c>
-      <c r="Q11" s="25" t="inlineStr">
-        <is>
-          <t>B1004347-</t>
-        </is>
-      </c>
-      <c r="R11" s="25" t="inlineStr">
-        <is>
-          <t>B2010914-</t>
-        </is>
-      </c>
-      <c r="S11" s="25" t="inlineStr">
-        <is>
-          <t>B1004569-</t>
-        </is>
-      </c>
-      <c r="T11" s="25" t="inlineStr">
-        <is>
-          <t>T2002783-</t>
-        </is>
-      </c>
-      <c r="U11" s="25" t="inlineStr">
-        <is>
-          <t>m1012515-</t>
-        </is>
-      </c>
-      <c r="V11" s="25" t="inlineStr">
-        <is>
-          <t>m1012515-</t>
-        </is>
-      </c>
-      <c r="W11" s="25" t="inlineStr">
-        <is>
-          <t>B2010224-</t>
-        </is>
-      </c>
-      <c r="X11" s="25" t="inlineStr">
-        <is>
-          <t>b1008656-</t>
-        </is>
-      </c>
-      <c r="Y11" s="25" t="inlineStr">
-        <is>
-          <t>B1006627-</t>
-        </is>
-      </c>
-      <c r="Z11" s="25" t="inlineStr">
-        <is>
-          <t>P1221530-</t>
-        </is>
-      </c>
-      <c r="AA11" s="25" t="inlineStr">
-        <is>
-          <t>B2000955-</t>
-        </is>
-      </c>
-      <c r="AB11" s="25" t="inlineStr">
-        <is>
-          <t>t2001438-</t>
-        </is>
-      </c>
-      <c r="AC11" s="25" t="inlineStr">
-        <is>
-          <t>B1005263-</t>
-        </is>
-      </c>
-      <c r="AD11" s="25" t="inlineStr">
-        <is>
-          <t>B2010412-</t>
+      <c r="C11" s="24" t="inlineStr">
+        <is>
+          <t>b2010461-</t>
+        </is>
+      </c>
+      <c r="D11" s="24" t="inlineStr">
+        <is>
+          <t>B2011421-</t>
+        </is>
+      </c>
+      <c r="E11" s="25" t="inlineStr">
+        <is>
+          <t>B2010418-</t>
+        </is>
+      </c>
+      <c r="F11" s="26" t="inlineStr">
+        <is>
+          <t>b1007877-</t>
+        </is>
+      </c>
+      <c r="G11" s="26" t="inlineStr">
+        <is>
+          <t>X1000227-</t>
+        </is>
+      </c>
+      <c r="H11" s="26" t="inlineStr">
+        <is>
+          <t>B2000210-</t>
+        </is>
+      </c>
+      <c r="I11" s="26" t="inlineStr">
+        <is>
+          <t>b1006835-</t>
+        </is>
+      </c>
+      <c r="J11" s="26" t="inlineStr">
+        <is>
+          <t>B1005389-</t>
+        </is>
+      </c>
+      <c r="K11" s="26" t="inlineStr">
+        <is>
+          <t>B1006289-</t>
+        </is>
+      </c>
+      <c r="L11" s="26" t="inlineStr">
+        <is>
+          <t>B2011408-</t>
+        </is>
+      </c>
+      <c r="M11" s="26" t="inlineStr">
+        <is>
+          <t>T1001198-</t>
+        </is>
+      </c>
+      <c r="N11" s="26" t="inlineStr">
+        <is>
+          <t>B1006219-</t>
+        </is>
+      </c>
+      <c r="O11" s="26" t="inlineStr">
+        <is>
+          <t>b1008804-</t>
+        </is>
+      </c>
+      <c r="P11" s="26" t="inlineStr">
+        <is>
+          <t>t2000166-</t>
+        </is>
+      </c>
+      <c r="Q11" s="26" t="inlineStr">
+        <is>
+          <t>T2001665-</t>
+        </is>
+      </c>
+      <c r="R11" s="26" t="inlineStr">
+        <is>
+          <t>B1008799-</t>
+        </is>
+      </c>
+      <c r="S11" s="26" t="inlineStr">
+        <is>
+          <t>T2000019-</t>
+        </is>
+      </c>
+      <c r="T11" s="26" t="inlineStr">
+        <is>
+          <t>B2010417-</t>
+        </is>
+      </c>
+      <c r="U11" s="26" t="inlineStr">
+        <is>
+          <t>B2010420-</t>
+        </is>
+      </c>
+      <c r="V11" s="26" t="inlineStr">
+        <is>
+          <t>t2001314-</t>
+        </is>
+      </c>
+      <c r="W11" s="26" t="inlineStr">
+        <is>
+          <t>b2012314-</t>
+        </is>
+      </c>
+      <c r="X11" s="26" t="inlineStr">
+        <is>
+          <t>B1001069-</t>
+        </is>
+      </c>
+      <c r="Y11" s="26" t="inlineStr">
+        <is>
+          <t>B2012336-</t>
+        </is>
+      </c>
+      <c r="Z11" s="26" t="inlineStr">
+        <is>
+          <t>B2012319-</t>
+        </is>
+      </c>
+      <c r="AA11" s="26" t="inlineStr">
+        <is>
+          <t>B2010876-</t>
+        </is>
+      </c>
+      <c r="AB11" s="26" t="inlineStr">
+        <is>
+          <t>p1230887-</t>
+        </is>
+      </c>
+      <c r="AC11" s="26" t="inlineStr">
+        <is>
+          <t>B1004847-</t>
+        </is>
+      </c>
+      <c r="AD11" s="26" t="inlineStr">
+        <is>
+          <t>B2000590-</t>
         </is>
       </c>
     </row>
@@ -2140,288 +2215,286 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>02021B</t>
+          <t>02272B</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>02022B</t>
+          <t>02271B</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>02041B</t>
+          <t>02252B</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>02042B</t>
+          <t>02251B</t>
         </is>
       </c>
       <c r="G12" s="7" t="inlineStr">
         <is>
-          <t>02061B</t>
+          <t>02232B</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>02062B</t>
+          <t>02231B</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
         <is>
-          <t>02081B</t>
+          <t>02212B</t>
         </is>
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
-          <t>02082B</t>
+          <t>02211B</t>
         </is>
       </c>
       <c r="K12" s="7" t="inlineStr">
         <is>
-          <t>02101B</t>
+          <t>02192B</t>
         </is>
       </c>
       <c r="L12" s="7" t="inlineStr">
         <is>
-          <t>02102B</t>
+          <t>02191B</t>
         </is>
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>02121B</t>
+          <t>02172B</t>
         </is>
       </c>
       <c r="N12" s="7" t="inlineStr">
         <is>
-          <t>02122B</t>
+          <t>02171B</t>
         </is>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
-          <t>02141B</t>
+          <t>02152B</t>
         </is>
       </c>
       <c r="P12" s="7" t="inlineStr">
         <is>
-          <t>02142B</t>
+          <t>02151B</t>
         </is>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
-          <t>02161B</t>
+          <t>02132B</t>
         </is>
       </c>
       <c r="R12" s="7" t="inlineStr">
         <is>
-          <t>02162B</t>
+          <t>02131B</t>
         </is>
       </c>
       <c r="S12" s="7" t="inlineStr">
         <is>
-          <t>02181B</t>
+          <t>02112B</t>
         </is>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
-          <t>02182B</t>
+          <t>02111B</t>
         </is>
       </c>
       <c r="U12" s="7" t="inlineStr">
         <is>
-          <t>02202B</t>
+          <t>02092B</t>
         </is>
       </c>
       <c r="V12" s="7" t="inlineStr">
         <is>
-          <t>02202B</t>
+          <t>02091B</t>
         </is>
       </c>
       <c r="W12" s="7" t="inlineStr">
         <is>
-          <t>02221B</t>
+          <t>02072B</t>
         </is>
       </c>
       <c r="X12" s="7" t="inlineStr">
         <is>
-          <t>02222B</t>
+          <t>02071B</t>
         </is>
       </c>
       <c r="Y12" s="7" t="inlineStr">
         <is>
-          <t>02241B</t>
+          <t>02052B</t>
         </is>
       </c>
       <c r="Z12" s="7" t="inlineStr">
         <is>
-          <t>02242B</t>
+          <t>02051B</t>
         </is>
       </c>
       <c r="AA12" s="7" t="inlineStr">
         <is>
-          <t>02261B</t>
+          <t>02032B</t>
         </is>
       </c>
       <c r="AB12" s="7" t="inlineStr">
         <is>
-          <t>02262B</t>
+          <t>02031B</t>
         </is>
       </c>
       <c r="AC12" s="7" t="inlineStr">
         <is>
-          <t>02281B</t>
+          <t>02012B</t>
         </is>
       </c>
       <c r="AD12" s="7" t="inlineStr">
         <is>
-          <t>02282B</t>
+          <t>02011B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="22" t="n"/>
       <c r="B13" s="10" t="n"/>
-      <c r="C13" s="29" t="inlineStr">
-        <is>
-          <t>B2000730-</t>
-        </is>
-      </c>
-      <c r="D13" s="29" t="inlineStr">
-        <is>
-          <t>B2010369-</t>
-        </is>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
-        <is>
-          <t>B2000848-</t>
-        </is>
-      </c>
-      <c r="F13" s="29" t="inlineStr">
-        <is>
-          <t>b1008823-</t>
-        </is>
-      </c>
-      <c r="G13" s="29" t="inlineStr">
-        <is>
-          <t>B2010924-</t>
-        </is>
-      </c>
-      <c r="H13" s="29" t="inlineStr">
-        <is>
-          <t>B1006628-</t>
-        </is>
-      </c>
-      <c r="I13" s="29" t="inlineStr">
-        <is>
-          <t>B2000600-</t>
-        </is>
-      </c>
-      <c r="J13" s="29" t="inlineStr">
-        <is>
-          <t>P1213681-</t>
-        </is>
-      </c>
-      <c r="K13" s="29" t="inlineStr">
-        <is>
-          <t>b1004649-</t>
-        </is>
-      </c>
-      <c r="L13" s="29" t="inlineStr">
-        <is>
-          <t>B2011181-</t>
-        </is>
-      </c>
-      <c r="M13" s="29" t="inlineStr">
-        <is>
-          <t>B2010222-</t>
-        </is>
-      </c>
-      <c r="N13" s="29" t="inlineStr">
-        <is>
-          <t>T1000609-</t>
-        </is>
-      </c>
-      <c r="O13" s="29" t="inlineStr">
-        <is>
-          <t>B1008717-</t>
-        </is>
-      </c>
-      <c r="P13" s="29" t="inlineStr">
-        <is>
-          <t>B1008716-</t>
-        </is>
-      </c>
-      <c r="Q13" s="29" t="inlineStr">
-        <is>
-          <t>B2011268-</t>
-        </is>
-      </c>
-      <c r="R13" s="29" t="inlineStr">
-        <is>
-          <t>T2001872-</t>
-        </is>
-      </c>
-      <c r="S13" s="29" t="inlineStr">
-        <is>
-          <t>B2000136-</t>
-        </is>
-      </c>
-      <c r="T13" s="29" t="inlineStr">
-        <is>
-          <t>B1007898-</t>
-        </is>
-      </c>
-      <c r="U13" s="30" t="inlineStr">
-        <is>
-          <t>B2000239-
-B2011196-</t>
-        </is>
-      </c>
-      <c r="V13" s="30" t="inlineStr">
-        <is>
-          <t>B2000239-
-B2011196-</t>
-        </is>
-      </c>
-      <c r="W13" s="29" t="inlineStr">
-        <is>
-          <t>t2001263-</t>
-        </is>
-      </c>
-      <c r="X13" s="29" t="inlineStr">
-        <is>
-          <t>B1007303-</t>
-        </is>
-      </c>
-      <c r="Y13" s="29" t="inlineStr">
-        <is>
-          <t>B2000169-</t>
-        </is>
-      </c>
-      <c r="Z13" s="29" t="inlineStr">
-        <is>
-          <t>B1008642-</t>
-        </is>
-      </c>
-      <c r="AA13" s="29" t="inlineStr">
-        <is>
-          <t>B1006222-</t>
-        </is>
-      </c>
-      <c r="AB13" s="29" t="inlineStr">
-        <is>
-          <t>B1009276-</t>
-        </is>
-      </c>
-      <c r="AC13" s="29" t="inlineStr">
-        <is>
-          <t>B2010755-</t>
-        </is>
-      </c>
-      <c r="AD13" s="29" t="inlineStr">
-        <is>
-          <t>B1006728-</t>
+      <c r="C13" s="24" t="inlineStr">
+        <is>
+          <t>B1008563-</t>
+        </is>
+      </c>
+      <c r="D13" s="24" t="inlineStr">
+        <is>
+          <t>X1000372-</t>
+        </is>
+      </c>
+      <c r="E13" s="26" t="inlineStr">
+        <is>
+          <t>t2003045-</t>
+        </is>
+      </c>
+      <c r="F13" s="26" t="inlineStr">
+        <is>
+          <t>X1000103-</t>
+        </is>
+      </c>
+      <c r="G13" s="26" t="inlineStr">
+        <is>
+          <t>B1008625-</t>
+        </is>
+      </c>
+      <c r="H13" s="26" t="inlineStr">
+        <is>
+          <t>B2010539-</t>
+        </is>
+      </c>
+      <c r="I13" s="26" t="inlineStr">
+        <is>
+          <t>M1000912-</t>
+        </is>
+      </c>
+      <c r="J13" s="26" t="inlineStr">
+        <is>
+          <t>B1007260-</t>
+        </is>
+      </c>
+      <c r="K13" s="26" t="inlineStr">
+        <is>
+          <t>T2002704-</t>
+        </is>
+      </c>
+      <c r="L13" s="26" t="inlineStr">
+        <is>
+          <t>X1000081-</t>
+        </is>
+      </c>
+      <c r="M13" s="26" t="inlineStr">
+        <is>
+          <t>B2012231-</t>
+        </is>
+      </c>
+      <c r="N13" s="26" t="inlineStr">
+        <is>
+          <t>B1006748-</t>
+        </is>
+      </c>
+      <c r="O13" s="26" t="inlineStr">
+        <is>
+          <t>B2000441-</t>
+        </is>
+      </c>
+      <c r="P13" s="26" t="inlineStr">
+        <is>
+          <t>B1008778-</t>
+        </is>
+      </c>
+      <c r="Q13" s="26" t="inlineStr">
+        <is>
+          <t>T1000910-</t>
+        </is>
+      </c>
+      <c r="R13" s="26" t="inlineStr">
+        <is>
+          <t>B2009988-</t>
+        </is>
+      </c>
+      <c r="S13" s="26" t="inlineStr">
+        <is>
+          <t>B2012317-</t>
+        </is>
+      </c>
+      <c r="T13" s="26" t="inlineStr">
+        <is>
+          <t>B1005930-</t>
+        </is>
+      </c>
+      <c r="U13" s="26" t="inlineStr">
+        <is>
+          <t>B2011412-</t>
+        </is>
+      </c>
+      <c r="V13" s="26" t="inlineStr">
+        <is>
+          <t>B2012320-</t>
+        </is>
+      </c>
+      <c r="W13" s="26" t="inlineStr">
+        <is>
+          <t>b2000518-</t>
+        </is>
+      </c>
+      <c r="X13" s="26" t="inlineStr">
+        <is>
+          <t>B2012321-</t>
+        </is>
+      </c>
+      <c r="Y13" s="26" t="inlineStr">
+        <is>
+          <t>B1008810-</t>
+        </is>
+      </c>
+      <c r="Z13" s="26" t="inlineStr">
+        <is>
+          <t>b1004219-</t>
+        </is>
+      </c>
+      <c r="AA13" s="26" t="inlineStr">
+        <is>
+          <t>B2000981-</t>
+        </is>
+      </c>
+      <c r="AB13" s="26" t="inlineStr">
+        <is>
+          <t>B2010917-</t>
+        </is>
+      </c>
+      <c r="AC13" s="26" t="inlineStr">
+        <is>
+          <t>b1008815-</t>
+        </is>
+      </c>
+      <c r="AD13" s="26" t="inlineStr">
+        <is>
+          <t>B2012334-</t>
         </is>
       </c>
     </row>
@@ -2432,284 +2505,288 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C14" s="24" t="inlineStr">
-        <is>
-          <t>02021A</t>
-        </is>
-      </c>
-      <c r="D14" s="24" t="inlineStr">
-        <is>
-          <t>02022A</t>
-        </is>
-      </c>
-      <c r="E14" s="24" t="inlineStr">
-        <is>
-          <t>02041A</t>
-        </is>
-      </c>
-      <c r="F14" s="24" t="inlineStr">
-        <is>
-          <t>02042A</t>
-        </is>
-      </c>
-      <c r="G14" s="24" t="inlineStr">
-        <is>
-          <t>02061A</t>
-        </is>
-      </c>
-      <c r="H14" s="24" t="inlineStr">
-        <is>
-          <t>02062A</t>
-        </is>
-      </c>
-      <c r="I14" s="24" t="inlineStr">
-        <is>
-          <t>02081A</t>
-        </is>
-      </c>
-      <c r="J14" s="24" t="inlineStr">
-        <is>
-          <t>02082A</t>
-        </is>
-      </c>
-      <c r="K14" s="24" t="inlineStr">
-        <is>
-          <t>02101A</t>
-        </is>
-      </c>
-      <c r="L14" s="24" t="inlineStr">
-        <is>
-          <t>02102A</t>
-        </is>
-      </c>
-      <c r="M14" s="24" t="inlineStr">
-        <is>
-          <t>02121A</t>
-        </is>
-      </c>
-      <c r="N14" s="24" t="inlineStr">
-        <is>
-          <t>02122A</t>
-        </is>
-      </c>
-      <c r="O14" s="24" t="inlineStr">
-        <is>
-          <t>02141A</t>
-        </is>
-      </c>
-      <c r="P14" s="24" t="inlineStr">
-        <is>
-          <t>02142A</t>
-        </is>
-      </c>
-      <c r="Q14" s="24" t="inlineStr">
-        <is>
-          <t>02161A</t>
-        </is>
-      </c>
-      <c r="R14" s="24" t="inlineStr">
-        <is>
-          <t>02162A</t>
-        </is>
-      </c>
-      <c r="S14" s="24" t="inlineStr">
-        <is>
-          <t>02181A</t>
-        </is>
-      </c>
-      <c r="T14" s="24" t="inlineStr">
-        <is>
-          <t>02182A</t>
-        </is>
-      </c>
-      <c r="U14" s="24" t="inlineStr">
-        <is>
-          <t>02202A</t>
-        </is>
-      </c>
-      <c r="V14" s="24" t="inlineStr">
-        <is>
-          <t>02202A</t>
-        </is>
-      </c>
-      <c r="W14" s="24" t="inlineStr">
-        <is>
-          <t>02221A</t>
-        </is>
-      </c>
-      <c r="X14" s="24" t="inlineStr">
-        <is>
-          <t>02222A</t>
-        </is>
-      </c>
-      <c r="Y14" s="24" t="inlineStr">
-        <is>
-          <t>02241A</t>
-        </is>
-      </c>
-      <c r="Z14" s="24" t="inlineStr">
-        <is>
-          <t>02242A</t>
-        </is>
-      </c>
-      <c r="AA14" s="24" t="inlineStr">
-        <is>
-          <t>02261A</t>
-        </is>
-      </c>
-      <c r="AB14" s="24" t="inlineStr">
-        <is>
-          <t>02262A</t>
-        </is>
-      </c>
-      <c r="AC14" s="24" t="inlineStr">
-        <is>
-          <t>02281A</t>
-        </is>
-      </c>
-      <c r="AD14" s="24" t="inlineStr">
-        <is>
-          <t>02282A</t>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>02272A</t>
+        </is>
+      </c>
+      <c r="D14" s="19" t="inlineStr">
+        <is>
+          <t>02271A</t>
+        </is>
+      </c>
+      <c r="E14" s="19" t="inlineStr">
+        <is>
+          <t>02252A</t>
+        </is>
+      </c>
+      <c r="F14" s="19" t="inlineStr">
+        <is>
+          <t>02251A</t>
+        </is>
+      </c>
+      <c r="G14" s="19" t="inlineStr">
+        <is>
+          <t>02232A</t>
+        </is>
+      </c>
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>02231A</t>
+        </is>
+      </c>
+      <c r="I14" s="19" t="inlineStr">
+        <is>
+          <t>02212A</t>
+        </is>
+      </c>
+      <c r="J14" s="19" t="inlineStr">
+        <is>
+          <t>02211A</t>
+        </is>
+      </c>
+      <c r="K14" s="19" t="inlineStr">
+        <is>
+          <t>02192A</t>
+        </is>
+      </c>
+      <c r="L14" s="19" t="inlineStr">
+        <is>
+          <t>02191A</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>02172A</t>
+        </is>
+      </c>
+      <c r="N14" s="19" t="inlineStr">
+        <is>
+          <t>02171A</t>
+        </is>
+      </c>
+      <c r="O14" s="19" t="inlineStr">
+        <is>
+          <t>02152A</t>
+        </is>
+      </c>
+      <c r="P14" s="19" t="inlineStr">
+        <is>
+          <t>02151A</t>
+        </is>
+      </c>
+      <c r="Q14" s="19" t="inlineStr">
+        <is>
+          <t>02132A</t>
+        </is>
+      </c>
+      <c r="R14" s="19" t="inlineStr">
+        <is>
+          <t>02131A</t>
+        </is>
+      </c>
+      <c r="S14" s="19" t="inlineStr">
+        <is>
+          <t>02112A</t>
+        </is>
+      </c>
+      <c r="T14" s="19" t="inlineStr">
+        <is>
+          <t>02111A</t>
+        </is>
+      </c>
+      <c r="U14" s="19" t="inlineStr">
+        <is>
+          <t>02092A</t>
+        </is>
+      </c>
+      <c r="V14" s="19" t="inlineStr">
+        <is>
+          <t>02091A</t>
+        </is>
+      </c>
+      <c r="W14" s="19" t="inlineStr">
+        <is>
+          <t>02072A</t>
+        </is>
+      </c>
+      <c r="X14" s="19" t="inlineStr">
+        <is>
+          <t>02071A</t>
+        </is>
+      </c>
+      <c r="Y14" s="19" t="inlineStr">
+        <is>
+          <t>02052A</t>
+        </is>
+      </c>
+      <c r="Z14" s="19" t="inlineStr">
+        <is>
+          <t>02051A</t>
+        </is>
+      </c>
+      <c r="AA14" s="19" t="inlineStr">
+        <is>
+          <t>02032A</t>
+        </is>
+      </c>
+      <c r="AB14" s="19" t="inlineStr">
+        <is>
+          <t>02031A</t>
+        </is>
+      </c>
+      <c r="AC14" s="19" t="inlineStr">
+        <is>
+          <t>02012A</t>
+        </is>
+      </c>
+      <c r="AD14" s="19" t="inlineStr">
+        <is>
+          <t>02011A</t>
         </is>
       </c>
     </row>
     <row r="15" ht="16.25" customHeight="1">
       <c r="A15" s="23" t="n"/>
       <c r="B15" s="9" t="n"/>
-      <c r="C15" s="27" t="inlineStr">
-        <is>
-          <t>B1008260-</t>
-        </is>
-      </c>
-      <c r="D15" s="27" t="inlineStr">
-        <is>
-          <t>B1008261-</t>
-        </is>
-      </c>
-      <c r="E15" s="27" t="inlineStr">
-        <is>
-          <t>B1008262-</t>
-        </is>
-      </c>
-      <c r="F15" s="27" t="inlineStr">
-        <is>
-          <t>B2010193-</t>
-        </is>
-      </c>
-      <c r="G15" s="27" t="inlineStr">
-        <is>
-          <t>B1008264-</t>
-        </is>
-      </c>
-      <c r="H15" s="27" t="inlineStr">
-        <is>
-          <t>b1008661-</t>
-        </is>
-      </c>
-      <c r="I15" s="27" t="inlineStr">
-        <is>
-          <t>P1226599-</t>
-        </is>
-      </c>
-      <c r="J15" s="27" t="inlineStr">
-        <is>
-          <t>B1008267-</t>
-        </is>
-      </c>
-      <c r="K15" s="27" t="inlineStr">
-        <is>
-          <t>b1008268-</t>
-        </is>
-      </c>
-      <c r="L15" s="27" t="inlineStr">
-        <is>
-          <t>B1007196-</t>
-        </is>
-      </c>
-      <c r="M15" s="27" t="inlineStr">
-        <is>
-          <t>B1007628-</t>
-        </is>
-      </c>
-      <c r="N15" s="27" t="inlineStr">
-        <is>
-          <t>B1008964-</t>
-        </is>
-      </c>
-      <c r="O15" s="27" t="inlineStr">
-        <is>
-          <t>B1008968-</t>
-        </is>
-      </c>
-      <c r="P15" s="27" t="inlineStr">
-        <is>
-          <t>B1007189-</t>
-        </is>
-      </c>
-      <c r="Q15" s="27" t="inlineStr">
-        <is>
-          <t>B1007183-</t>
-        </is>
-      </c>
-      <c r="R15" s="27" t="inlineStr">
-        <is>
-          <t>B1007198-</t>
-        </is>
-      </c>
-      <c r="S15" s="27" t="inlineStr">
-        <is>
-          <t>B1008970-</t>
-        </is>
-      </c>
-      <c r="T15" s="27" t="inlineStr">
-        <is>
-          <t>B1007134-</t>
-        </is>
-      </c>
-      <c r="U15" s="27" t="inlineStr">
-        <is>
-          <t>B1007137-</t>
-        </is>
-      </c>
-      <c r="V15" s="27" t="inlineStr">
-        <is>
-          <t>B1007137-</t>
-        </is>
-      </c>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="27" t="inlineStr">
-        <is>
-          <t>M1015698-</t>
-        </is>
-      </c>
-      <c r="Y15" s="27" t="inlineStr">
-        <is>
-          <t>B1007116-</t>
-        </is>
-      </c>
-      <c r="Z15" s="27" t="inlineStr">
-        <is>
-          <t>B1008973-</t>
-        </is>
-      </c>
-      <c r="AA15" s="27" t="inlineStr">
-        <is>
-          <t>B2010965-</t>
-        </is>
-      </c>
-      <c r="AB15" s="27" t="inlineStr">
-        <is>
-          <t>B2010603-</t>
-        </is>
-      </c>
-      <c r="AC15" s="27" t="inlineStr">
-        <is>
-          <t>B2000108-</t>
-        </is>
-      </c>
-      <c r="AD15" s="27" t="inlineStr">
-        <is>
-          <t>B1006957-</t>
+      <c r="C15" s="24" t="inlineStr">
+        <is>
+          <t>B1006650-</t>
+        </is>
+      </c>
+      <c r="D15" s="24" t="inlineStr">
+        <is>
+          <t>B2011492-</t>
+        </is>
+      </c>
+      <c r="E15" s="24" t="inlineStr">
+        <is>
+          <t>b2009993-</t>
+        </is>
+      </c>
+      <c r="F15" s="24" t="inlineStr">
+        <is>
+          <t>B2010406-</t>
+        </is>
+      </c>
+      <c r="G15" s="24" t="inlineStr">
+        <is>
+          <t>T2001275-</t>
+        </is>
+      </c>
+      <c r="H15" s="24" t="inlineStr">
+        <is>
+          <t>B2011506-</t>
+        </is>
+      </c>
+      <c r="I15" s="24" t="inlineStr">
+        <is>
+          <t>B1007699-</t>
+        </is>
+      </c>
+      <c r="J15" s="24" t="inlineStr">
+        <is>
+          <t>A1008955-</t>
+        </is>
+      </c>
+      <c r="K15" s="24" t="inlineStr">
+        <is>
+          <t>B2010880-</t>
+        </is>
+      </c>
+      <c r="L15" s="24" t="inlineStr">
+        <is>
+          <t>B2011284-</t>
+        </is>
+      </c>
+      <c r="M15" s="24" t="inlineStr">
+        <is>
+          <t>B1007734-</t>
+        </is>
+      </c>
+      <c r="N15" s="24" t="inlineStr">
+        <is>
+          <t>B2010100-</t>
+        </is>
+      </c>
+      <c r="O15" s="24" t="inlineStr">
+        <is>
+          <t>B1007272-</t>
+        </is>
+      </c>
+      <c r="P15" s="24" t="inlineStr">
+        <is>
+          <t>B1008971-</t>
+        </is>
+      </c>
+      <c r="Q15" s="24" t="inlineStr">
+        <is>
+          <t>B1007268-</t>
+        </is>
+      </c>
+      <c r="R15" s="24" t="inlineStr">
+        <is>
+          <t>T1000059-</t>
+        </is>
+      </c>
+      <c r="S15" s="24" t="inlineStr">
+        <is>
+          <t>B1007194-</t>
+        </is>
+      </c>
+      <c r="T15" s="24" t="inlineStr">
+        <is>
+          <t>B1007200-</t>
+        </is>
+      </c>
+      <c r="U15" s="24" t="inlineStr">
+        <is>
+          <t>B1007390-</t>
+        </is>
+      </c>
+      <c r="V15" s="24" t="inlineStr">
+        <is>
+          <t>B2012219-</t>
+        </is>
+      </c>
+      <c r="W15" s="24" t="inlineStr">
+        <is>
+          <t>T1001049-</t>
+        </is>
+      </c>
+      <c r="X15" s="24" t="inlineStr">
+        <is>
+          <t>P1232752-</t>
+        </is>
+      </c>
+      <c r="Y15" s="24" t="inlineStr">
+        <is>
+          <t>B2010116-</t>
+        </is>
+      </c>
+      <c r="Z15" s="24" t="inlineStr">
+        <is>
+          <t>B2011119-</t>
+        </is>
+      </c>
+      <c r="AA15" s="24" t="inlineStr">
+        <is>
+          <t>B1007206-</t>
+        </is>
+      </c>
+      <c r="AB15" s="24" t="inlineStr">
+        <is>
+          <t>B2011432-</t>
+        </is>
+      </c>
+      <c r="AC15" s="24" t="inlineStr">
+        <is>
+          <t>B1008963-</t>
+        </is>
+      </c>
+      <c r="AD15" s="24" t="inlineStr">
+        <is>
+          <t>B1008951-</t>
         </is>
       </c>
     </row>
@@ -2970,142 +3047,142 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>02272G</t>
+          <t>02021G</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>02271G</t>
+          <t>02022G</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>02252G</t>
+          <t>02041G</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
         <is>
-          <t>02251G</t>
+          <t>02042G</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>02232G</t>
+          <t>02061G</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>02231G</t>
+          <t>02062G</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>02212G</t>
+          <t>02081G</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
-          <t>02211G</t>
+          <t>02082G</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
         <is>
-          <t>02192G</t>
+          <t>02101G</t>
         </is>
       </c>
       <c r="L18" s="11" t="inlineStr">
         <is>
-          <t>02191G</t>
+          <t>02102G</t>
         </is>
       </c>
       <c r="M18" s="11" t="inlineStr">
         <is>
-          <t>02172G</t>
+          <t>02121G</t>
         </is>
       </c>
       <c r="N18" s="11" t="inlineStr">
         <is>
-          <t>02171G</t>
+          <t>02122G</t>
         </is>
       </c>
       <c r="O18" s="11" t="inlineStr">
         <is>
-          <t>02152G</t>
+          <t>02141G</t>
         </is>
       </c>
       <c r="P18" s="11" t="inlineStr">
         <is>
-          <t>02151G</t>
+          <t>02142G</t>
         </is>
       </c>
       <c r="Q18" s="11" t="inlineStr">
         <is>
-          <t>02132G</t>
+          <t>02161G</t>
         </is>
       </c>
       <c r="R18" s="11" t="inlineStr">
         <is>
-          <t>02131G</t>
+          <t>02162G</t>
         </is>
       </c>
       <c r="S18" s="11" t="inlineStr">
         <is>
-          <t>02112G</t>
+          <t>02181G</t>
         </is>
       </c>
       <c r="T18" s="11" t="inlineStr">
         <is>
-          <t>02111G</t>
+          <t>02182G</t>
         </is>
       </c>
       <c r="U18" s="11" t="inlineStr">
         <is>
-          <t>02092G</t>
+          <t>02202G</t>
         </is>
       </c>
       <c r="V18" s="11" t="inlineStr">
         <is>
-          <t>02091G</t>
+          <t>02202G</t>
         </is>
       </c>
       <c r="W18" s="11" t="inlineStr">
         <is>
-          <t>02072G</t>
+          <t>02221G</t>
         </is>
       </c>
       <c r="X18" s="11" t="inlineStr">
         <is>
-          <t>02071G</t>
+          <t>02222G</t>
         </is>
       </c>
       <c r="Y18" s="11" t="inlineStr">
         <is>
-          <t>02052G</t>
+          <t>02241G</t>
         </is>
       </c>
       <c r="Z18" s="11" t="inlineStr">
         <is>
-          <t>02051G</t>
+          <t>02242G</t>
         </is>
       </c>
       <c r="AA18" s="11" t="inlineStr">
         <is>
-          <t>02032G</t>
+          <t>02261G</t>
         </is>
       </c>
       <c r="AB18" s="11" t="inlineStr">
         <is>
-          <t>02031G</t>
+          <t>02262G</t>
         </is>
       </c>
       <c r="AC18" s="11" t="inlineStr">
         <is>
-          <t>02012G</t>
+          <t>02281G</t>
         </is>
       </c>
       <c r="AD18" s="11" t="inlineStr">
         <is>
-          <t>02011G</t>
+          <t>02282G</t>
         </is>
       </c>
     </row>
@@ -3113,89 +3190,121 @@
       <c r="A19" s="22" t="n"/>
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="11" t="n"/>
-      <c r="D19" s="31" t="inlineStr">
-        <is>
-          <t>B1006463-</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>B2011427-</t>
+        </is>
+      </c>
       <c r="F19" s="11" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="31" t="inlineStr">
-        <is>
-          <t>b1007872-</t>
-        </is>
-      </c>
-      <c r="J19" s="31" t="inlineStr">
-        <is>
-          <t>e1000158-</t>
-        </is>
-      </c>
-      <c r="K19" s="31" t="inlineStr">
-        <is>
-          <t>B1004384-</t>
-        </is>
-      </c>
-      <c r="L19" s="31" t="inlineStr">
-        <is>
-          <t>P1205425-</t>
-        </is>
-      </c>
-      <c r="M19" s="31" t="inlineStr">
-        <is>
-          <t>T2001861-</t>
-        </is>
-      </c>
-      <c r="N19" s="11" t="n"/>
-      <c r="O19" s="11" t="n"/>
-      <c r="P19" s="11" t="n"/>
+      <c r="G19" s="28" t="inlineStr">
+        <is>
+          <t>b2010651-</t>
+        </is>
+      </c>
+      <c r="H19" s="28" t="inlineStr">
+        <is>
+          <t>b1008816-</t>
+        </is>
+      </c>
+      <c r="I19" s="28" t="inlineStr">
+        <is>
+          <t>B1008974-</t>
+        </is>
+      </c>
+      <c r="J19" s="28" t="inlineStr">
+        <is>
+          <t>b2010796-</t>
+        </is>
+      </c>
+      <c r="K19" s="28" t="inlineStr">
+        <is>
+          <t>P1233375-</t>
+        </is>
+      </c>
+      <c r="L19" s="28" t="inlineStr">
+        <is>
+          <t>B1004586-</t>
+        </is>
+      </c>
+      <c r="M19" s="11" t="n"/>
+      <c r="N19" s="28" t="inlineStr">
+        <is>
+          <t>P1099439-</t>
+        </is>
+      </c>
+      <c r="O19" s="28" t="inlineStr">
+        <is>
+          <t>B1007783-</t>
+        </is>
+      </c>
+      <c r="P19" s="28" t="inlineStr">
+        <is>
+          <t>P1229450-</t>
+        </is>
+      </c>
       <c r="Q19" s="11" t="n"/>
-      <c r="R19" s="31" t="inlineStr">
-        <is>
-          <t>B1004002-</t>
-        </is>
-      </c>
-      <c r="S19" s="31" t="inlineStr">
-        <is>
-          <t>B1000326-</t>
-        </is>
-      </c>
-      <c r="T19" s="11" t="n"/>
-      <c r="U19" s="11" t="n"/>
-      <c r="V19" s="11" t="n"/>
-      <c r="W19" s="31" t="inlineStr">
-        <is>
-          <t>B1006422-</t>
-        </is>
-      </c>
-      <c r="X19" s="11" t="n"/>
-      <c r="Y19" s="11" t="n"/>
-      <c r="Z19" s="31" t="inlineStr">
-        <is>
-          <t>P1070759-</t>
-        </is>
-      </c>
-      <c r="AA19" s="31" t="inlineStr">
-        <is>
-          <t>P1232572-</t>
-        </is>
-      </c>
-      <c r="AB19" s="31" t="inlineStr">
-        <is>
-          <t>B2000979-</t>
-        </is>
-      </c>
-      <c r="AC19" s="31" t="inlineStr">
-        <is>
-          <t>B2010855-</t>
-        </is>
-      </c>
-      <c r="AD19" s="31" t="inlineStr">
-        <is>
-          <t>B1005540-</t>
-        </is>
-      </c>
+      <c r="R19" s="28" t="inlineStr">
+        <is>
+          <t>B1006310-</t>
+        </is>
+      </c>
+      <c r="S19" s="28" t="inlineStr">
+        <is>
+          <t>M1017606-</t>
+        </is>
+      </c>
+      <c r="T19" s="28" t="inlineStr">
+        <is>
+          <t>M1016836-</t>
+        </is>
+      </c>
+      <c r="U19" s="28" t="inlineStr">
+        <is>
+          <t>P1227409-</t>
+        </is>
+      </c>
+      <c r="V19" s="28" t="inlineStr">
+        <is>
+          <t>P1227409-</t>
+        </is>
+      </c>
+      <c r="W19" s="28" t="inlineStr">
+        <is>
+          <t>b1008969-</t>
+        </is>
+      </c>
+      <c r="X19" s="28" t="inlineStr">
+        <is>
+          <t>B1004833-</t>
+        </is>
+      </c>
+      <c r="Y19" s="28" t="inlineStr">
+        <is>
+          <t>B1008656-</t>
+        </is>
+      </c>
+      <c r="Z19" s="28" t="inlineStr">
+        <is>
+          <t>b1007263-</t>
+        </is>
+      </c>
+      <c r="AA19" s="28" t="inlineStr">
+        <is>
+          <t>b2011071-</t>
+        </is>
+      </c>
+      <c r="AB19" s="28" t="inlineStr">
+        <is>
+          <t>B2011145-</t>
+        </is>
+      </c>
+      <c r="AC19" s="28" t="inlineStr">
+        <is>
+          <t>B2010806-</t>
+        </is>
+      </c>
+      <c r="AD19" s="11" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="22" t="n"/>
@@ -3206,278 +3315,286 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>02272F</t>
+          <t>02021F</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>02271F</t>
+          <t>02022F</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>02252F</t>
+          <t>02041F</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>02251F</t>
+          <t>02042F</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>02232F</t>
+          <t>02061F</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>02231F</t>
+          <t>02062F</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>02212F</t>
+          <t>02081F</t>
         </is>
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>02211F</t>
+          <t>02082F</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
         <is>
-          <t>02192F</t>
+          <t>02101F</t>
         </is>
       </c>
       <c r="L20" s="11" t="inlineStr">
         <is>
-          <t>02191F</t>
+          <t>02102F</t>
         </is>
       </c>
       <c r="M20" s="11" t="inlineStr">
         <is>
-          <t>02172F</t>
+          <t>02121F</t>
         </is>
       </c>
       <c r="N20" s="11" t="inlineStr">
         <is>
-          <t>02171F</t>
+          <t>02122F</t>
         </is>
       </c>
       <c r="O20" s="11" t="inlineStr">
         <is>
-          <t>02152F</t>
+          <t>02141F</t>
         </is>
       </c>
       <c r="P20" s="11" t="inlineStr">
         <is>
-          <t>02151F</t>
+          <t>02142F</t>
         </is>
       </c>
       <c r="Q20" s="11" t="inlineStr">
         <is>
-          <t>02132F</t>
+          <t>02161F</t>
         </is>
       </c>
       <c r="R20" s="11" t="inlineStr">
         <is>
-          <t>02131F</t>
+          <t>02162F</t>
         </is>
       </c>
       <c r="S20" s="11" t="inlineStr">
         <is>
-          <t>02112F</t>
+          <t>02181F</t>
         </is>
       </c>
       <c r="T20" s="11" t="inlineStr">
         <is>
-          <t>02111F</t>
+          <t>02182F</t>
         </is>
       </c>
       <c r="U20" s="11" t="inlineStr">
         <is>
-          <t>02092F</t>
+          <t>02202F</t>
         </is>
       </c>
       <c r="V20" s="11" t="inlineStr">
         <is>
-          <t>02091F</t>
+          <t>02202F</t>
         </is>
       </c>
       <c r="W20" s="11" t="inlineStr">
         <is>
-          <t>02072F</t>
+          <t>02221F</t>
         </is>
       </c>
       <c r="X20" s="11" t="inlineStr">
         <is>
-          <t>02071F</t>
+          <t>02222F</t>
         </is>
       </c>
       <c r="Y20" s="11" t="inlineStr">
         <is>
-          <t>02052F</t>
+          <t>02241F</t>
         </is>
       </c>
       <c r="Z20" s="11" t="inlineStr">
         <is>
-          <t>02051F</t>
+          <t>02242F</t>
         </is>
       </c>
       <c r="AA20" s="11" t="inlineStr">
         <is>
-          <t>02032F</t>
+          <t>02261F</t>
         </is>
       </c>
       <c r="AB20" s="11" t="inlineStr">
         <is>
-          <t>02031F</t>
+          <t>02262F</t>
         </is>
       </c>
       <c r="AC20" s="11" t="inlineStr">
         <is>
-          <t>02012F</t>
+          <t>02281F</t>
         </is>
       </c>
       <c r="AD20" s="11" t="inlineStr">
         <is>
-          <t>02011F</t>
+          <t>02282F</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="22" t="n"/>
       <c r="B21" s="21" t="n"/>
-      <c r="C21" s="31" t="inlineStr">
-        <is>
-          <t>B1006349-</t>
-        </is>
-      </c>
-      <c r="D21" s="31" t="inlineStr">
-        <is>
-          <t>B2010963-</t>
-        </is>
-      </c>
-      <c r="E21" s="31" t="inlineStr">
-        <is>
-          <t>M1011065-</t>
-        </is>
-      </c>
-      <c r="F21" s="31" t="inlineStr">
-        <is>
-          <t>B2000554-</t>
-        </is>
-      </c>
-      <c r="G21" s="31" t="inlineStr">
-        <is>
-          <t>T2001934-</t>
-        </is>
-      </c>
-      <c r="H21" s="31" t="inlineStr">
-        <is>
-          <t>B1004334-</t>
-        </is>
-      </c>
-      <c r="I21" s="31" t="inlineStr">
-        <is>
-          <t>B2010900-</t>
-        </is>
-      </c>
-      <c r="J21" s="31" t="inlineStr">
-        <is>
-          <t>T1001290-</t>
-        </is>
-      </c>
-      <c r="K21" s="11" t="n"/>
-      <c r="L21" s="31" t="inlineStr">
-        <is>
-          <t>B2010898-</t>
-        </is>
-      </c>
-      <c r="M21" s="31" t="inlineStr">
-        <is>
-          <t>B2011312-</t>
-        </is>
-      </c>
-      <c r="N21" s="31" t="inlineStr">
-        <is>
-          <t>B2010899-</t>
-        </is>
-      </c>
-      <c r="O21" s="31" t="inlineStr">
-        <is>
-          <t>B1000292-</t>
-        </is>
-      </c>
-      <c r="P21" s="31" t="inlineStr">
-        <is>
-          <t>B1000917-</t>
-        </is>
-      </c>
-      <c r="Q21" s="11" t="n"/>
-      <c r="R21" s="31" t="inlineStr">
-        <is>
-          <t>B2010781-</t>
-        </is>
-      </c>
-      <c r="S21" s="31" t="inlineStr">
-        <is>
-          <t>B2010862-</t>
-        </is>
-      </c>
-      <c r="T21" s="31" t="inlineStr">
-        <is>
-          <t>B1005944-</t>
-        </is>
-      </c>
-      <c r="U21" s="31" t="inlineStr">
-        <is>
-          <t>B1007838-</t>
-        </is>
-      </c>
-      <c r="V21" s="31" t="inlineStr">
-        <is>
-          <t>B2010864-</t>
-        </is>
-      </c>
-      <c r="W21" s="31" t="inlineStr">
-        <is>
-          <t>B2010861-</t>
-        </is>
-      </c>
-      <c r="X21" s="31" t="inlineStr">
-        <is>
-          <t>B1007150-</t>
-        </is>
-      </c>
-      <c r="Y21" s="31" t="inlineStr">
-        <is>
-          <t>B2000282-</t>
-        </is>
-      </c>
-      <c r="Z21" s="31" t="inlineStr">
-        <is>
-          <t>B2000167-</t>
-        </is>
-      </c>
-      <c r="AA21" s="31" t="inlineStr">
-        <is>
-          <t>B2000557-</t>
-        </is>
-      </c>
-      <c r="AB21" s="31" t="inlineStr">
-        <is>
-          <t>B1007327-</t>
-        </is>
-      </c>
-      <c r="AC21" s="31" t="inlineStr">
-        <is>
-          <t>P1232633-</t>
-        </is>
-      </c>
-      <c r="AD21" s="31" t="inlineStr">
-        <is>
-          <t>T1001027-</t>
+      <c r="C21" s="28" t="inlineStr">
+        <is>
+          <t>M1015686-</t>
+        </is>
+      </c>
+      <c r="D21" s="28" t="inlineStr">
+        <is>
+          <t>T2002831-</t>
+        </is>
+      </c>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t>T2002344-</t>
+        </is>
+      </c>
+      <c r="F21" s="28" t="inlineStr">
+        <is>
+          <t>B1000171-</t>
+        </is>
+      </c>
+      <c r="G21" s="28" t="inlineStr">
+        <is>
+          <t>T1000050-</t>
+        </is>
+      </c>
+      <c r="H21" s="28" t="inlineStr">
+        <is>
+          <t>B2010341-</t>
+        </is>
+      </c>
+      <c r="I21" s="28" t="inlineStr">
+        <is>
+          <t>B2010797-</t>
+        </is>
+      </c>
+      <c r="J21" s="28" t="inlineStr">
+        <is>
+          <t>B2000163-</t>
+        </is>
+      </c>
+      <c r="K21" s="28" t="inlineStr">
+        <is>
+          <t>P1224910-</t>
+        </is>
+      </c>
+      <c r="L21" s="28" t="inlineStr">
+        <is>
+          <t>B1007280-</t>
+        </is>
+      </c>
+      <c r="M21" s="28" t="inlineStr">
+        <is>
+          <t>B1005266-</t>
+        </is>
+      </c>
+      <c r="N21" s="28" t="inlineStr">
+        <is>
+          <t>B1008885-</t>
+        </is>
+      </c>
+      <c r="O21" s="28" t="inlineStr">
+        <is>
+          <t>M1012922-</t>
+        </is>
+      </c>
+      <c r="P21" s="28" t="inlineStr">
+        <is>
+          <t>P1223157-</t>
+        </is>
+      </c>
+      <c r="Q21" s="28" t="inlineStr">
+        <is>
+          <t>B2010740-</t>
+        </is>
+      </c>
+      <c r="R21" s="28" t="inlineStr">
+        <is>
+          <t>B2000354-</t>
+        </is>
+      </c>
+      <c r="S21" s="28" t="inlineStr">
+        <is>
+          <t>B2010856-</t>
+        </is>
+      </c>
+      <c r="T21" s="28" t="inlineStr">
+        <is>
+          <t>t1000202-</t>
+        </is>
+      </c>
+      <c r="U21" s="28" t="inlineStr">
+        <is>
+          <t>B2011475-</t>
+        </is>
+      </c>
+      <c r="V21" s="28" t="inlineStr">
+        <is>
+          <t>B2011475-</t>
+        </is>
+      </c>
+      <c r="W21" s="28" t="inlineStr">
+        <is>
+          <t>P1222622-</t>
+        </is>
+      </c>
+      <c r="X21" s="28" t="inlineStr">
+        <is>
+          <t>T1000876-</t>
+        </is>
+      </c>
+      <c r="Y21" s="28" t="inlineStr">
+        <is>
+          <t>E1000193-</t>
+        </is>
+      </c>
+      <c r="Z21" s="28" t="inlineStr">
+        <is>
+          <t>T2001103-</t>
+        </is>
+      </c>
+      <c r="AA21" s="28" t="inlineStr">
+        <is>
+          <t>b1008627-</t>
+        </is>
+      </c>
+      <c r="AB21" s="28" t="inlineStr">
+        <is>
+          <t>B1008651-</t>
+        </is>
+      </c>
+      <c r="AC21" s="28" t="inlineStr">
+        <is>
+          <t>T2003242-</t>
+        </is>
+      </c>
+      <c r="AD21" s="28" t="inlineStr">
+        <is>
+          <t>B2000230-</t>
         </is>
       </c>
     </row>
@@ -3490,274 +3607,286 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>02272E</t>
+          <t>02021E</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>02271E</t>
+          <t>02022E</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>02252E</t>
+          <t>02041E</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
         <is>
-          <t>02251E</t>
+          <t>02042E</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>02232E</t>
+          <t>02061E</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>02231E</t>
+          <t>02062E</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
-          <t>02212E</t>
+          <t>02081E</t>
         </is>
       </c>
       <c r="J22" s="11" t="inlineStr">
         <is>
-          <t>02211E</t>
+          <t>02082E</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
         <is>
-          <t>02192E</t>
+          <t>02101E</t>
         </is>
       </c>
       <c r="L22" s="11" t="inlineStr">
         <is>
-          <t>02191E</t>
+          <t>02102E</t>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr">
         <is>
-          <t>02172E</t>
+          <t>02121E</t>
         </is>
       </c>
       <c r="N22" s="11" t="inlineStr">
         <is>
-          <t>02171E</t>
+          <t>02122E</t>
         </is>
       </c>
       <c r="O22" s="11" t="inlineStr">
         <is>
-          <t>02152E</t>
+          <t>02141E</t>
         </is>
       </c>
       <c r="P22" s="11" t="inlineStr">
         <is>
-          <t>02151E</t>
+          <t>02142E</t>
         </is>
       </c>
       <c r="Q22" s="11" t="inlineStr">
         <is>
-          <t>02132E</t>
+          <t>02161E</t>
         </is>
       </c>
       <c r="R22" s="11" t="inlineStr">
         <is>
-          <t>02131E</t>
+          <t>02162E</t>
         </is>
       </c>
       <c r="S22" s="11" t="inlineStr">
         <is>
-          <t>02112E</t>
+          <t>02181E</t>
         </is>
       </c>
       <c r="T22" s="11" t="inlineStr">
         <is>
-          <t>02111E</t>
+          <t>02182E</t>
         </is>
       </c>
       <c r="U22" s="11" t="inlineStr">
         <is>
-          <t>02092E</t>
+          <t>02202E</t>
         </is>
       </c>
       <c r="V22" s="11" t="inlineStr">
         <is>
-          <t>02091E</t>
+          <t>02202E</t>
         </is>
       </c>
       <c r="W22" s="11" t="inlineStr">
         <is>
-          <t>02072E</t>
+          <t>02221E</t>
         </is>
       </c>
       <c r="X22" s="11" t="inlineStr">
         <is>
-          <t>02071E</t>
+          <t>02222E</t>
         </is>
       </c>
       <c r="Y22" s="11" t="inlineStr">
         <is>
-          <t>02052E</t>
+          <t>02241E</t>
         </is>
       </c>
       <c r="Z22" s="11" t="inlineStr">
         <is>
-          <t>02051E</t>
+          <t>02242E</t>
         </is>
       </c>
       <c r="AA22" s="11" t="inlineStr">
         <is>
-          <t>02032E</t>
+          <t>02261E</t>
         </is>
       </c>
       <c r="AB22" s="11" t="inlineStr">
         <is>
-          <t>02031E</t>
+          <t>02262E</t>
         </is>
       </c>
       <c r="AC22" s="11" t="inlineStr">
         <is>
-          <t>02012E</t>
+          <t>02281E</t>
         </is>
       </c>
       <c r="AD22" s="11" t="inlineStr">
         <is>
-          <t>02011E</t>
+          <t>02282E</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="n"/>
       <c r="B23" s="21" t="n"/>
-      <c r="C23" s="31" t="inlineStr">
-        <is>
-          <t>B1006173-</t>
-        </is>
-      </c>
-      <c r="D23" s="31" t="inlineStr">
-        <is>
-          <t>B2011287-</t>
-        </is>
-      </c>
-      <c r="E23" s="31" t="inlineStr">
-        <is>
-          <t>b2000212-</t>
-        </is>
-      </c>
-      <c r="F23" s="31" t="inlineStr">
-        <is>
-          <t>b1007795-</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="31" t="inlineStr">
-        <is>
-          <t>b1006991-</t>
-        </is>
-      </c>
-      <c r="I23" s="11" t="n"/>
-      <c r="J23" s="31" t="inlineStr">
-        <is>
-          <t>B1006792-</t>
-        </is>
-      </c>
-      <c r="K23" s="31" t="inlineStr">
-        <is>
-          <t>B2010745-</t>
-        </is>
-      </c>
-      <c r="L23" s="31" t="inlineStr">
-        <is>
-          <t>T1000440-</t>
-        </is>
-      </c>
-      <c r="M23" s="31" t="inlineStr">
-        <is>
-          <t>B1000275-</t>
-        </is>
-      </c>
-      <c r="N23" s="11" t="n"/>
-      <c r="O23" s="31" t="inlineStr">
-        <is>
-          <t>B1008886-</t>
-        </is>
-      </c>
-      <c r="P23" s="31" t="inlineStr">
-        <is>
-          <t>T1000964-</t>
-        </is>
-      </c>
-      <c r="Q23" s="31" t="inlineStr">
-        <is>
-          <t>B2010278-</t>
-        </is>
-      </c>
-      <c r="R23" s="31" t="inlineStr">
-        <is>
-          <t>t2001308-</t>
-        </is>
-      </c>
-      <c r="S23" s="31" t="inlineStr">
-        <is>
-          <t>B2011276-</t>
-        </is>
-      </c>
-      <c r="T23" s="31" t="inlineStr">
-        <is>
-          <t>T1000022-</t>
-        </is>
-      </c>
-      <c r="U23" s="31" t="inlineStr">
-        <is>
-          <t>B2000705-</t>
-        </is>
-      </c>
-      <c r="V23" s="31" t="inlineStr">
-        <is>
-          <t>B2011304-</t>
-        </is>
-      </c>
-      <c r="W23" s="31" t="inlineStr">
-        <is>
-          <t>B1008049-</t>
-        </is>
-      </c>
-      <c r="X23" s="31" t="inlineStr">
-        <is>
-          <t>B1005932-</t>
-        </is>
-      </c>
-      <c r="Y23" s="31" t="inlineStr">
-        <is>
-          <t>B2010853-</t>
-        </is>
-      </c>
-      <c r="Z23" s="31" t="inlineStr">
-        <is>
-          <t>B1007936-</t>
-        </is>
-      </c>
-      <c r="AA23" s="31" t="inlineStr">
-        <is>
-          <t>B2010281-</t>
-        </is>
-      </c>
-      <c r="AB23" s="31" t="inlineStr">
-        <is>
-          <t>p1206216-</t>
-        </is>
-      </c>
-      <c r="AC23" s="31" t="inlineStr">
-        <is>
-          <t>M1013805-</t>
-        </is>
-      </c>
-      <c r="AD23" s="31" t="inlineStr">
-        <is>
-          <t>B2000270-</t>
+      <c r="C23" s="28" t="inlineStr">
+        <is>
+          <t>B2012232-</t>
+        </is>
+      </c>
+      <c r="D23" s="28" t="inlineStr">
+        <is>
+          <t>B2010416-</t>
+        </is>
+      </c>
+      <c r="E23" s="28" t="inlineStr">
+        <is>
+          <t>B2010280-</t>
+        </is>
+      </c>
+      <c r="F23" s="28" t="inlineStr">
+        <is>
+          <t>B2010237-</t>
+        </is>
+      </c>
+      <c r="G23" s="28" t="inlineStr">
+        <is>
+          <t>T1000695-</t>
+        </is>
+      </c>
+      <c r="H23" s="28" t="inlineStr">
+        <is>
+          <t>B2000201-</t>
+        </is>
+      </c>
+      <c r="I23" s="28" t="inlineStr">
+        <is>
+          <t>B1005394-</t>
+        </is>
+      </c>
+      <c r="J23" s="28" t="inlineStr">
+        <is>
+          <t>b1007897-</t>
+        </is>
+      </c>
+      <c r="K23" s="28" t="inlineStr">
+        <is>
+          <t>t1000182-</t>
+        </is>
+      </c>
+      <c r="L23" s="28" t="inlineStr">
+        <is>
+          <t>W1000052-</t>
+        </is>
+      </c>
+      <c r="M23" s="28" t="inlineStr">
+        <is>
+          <t>B2000527-</t>
+        </is>
+      </c>
+      <c r="N23" s="28" t="inlineStr">
+        <is>
+          <t>B1009275-</t>
+        </is>
+      </c>
+      <c r="O23" s="28" t="inlineStr">
+        <is>
+          <t>T2002333-</t>
+        </is>
+      </c>
+      <c r="P23" s="28" t="inlineStr">
+        <is>
+          <t>T1001015-</t>
+        </is>
+      </c>
+      <c r="Q23" s="28" t="inlineStr">
+        <is>
+          <t>B1007938-</t>
+        </is>
+      </c>
+      <c r="R23" s="28" t="inlineStr">
+        <is>
+          <t>B1008857-</t>
+        </is>
+      </c>
+      <c r="S23" s="28" t="inlineStr">
+        <is>
+          <t>B2000570-</t>
+        </is>
+      </c>
+      <c r="T23" s="28" t="inlineStr">
+        <is>
+          <t>P1077205-</t>
+        </is>
+      </c>
+      <c r="U23" s="28" t="inlineStr">
+        <is>
+          <t>B1004664-</t>
+        </is>
+      </c>
+      <c r="V23" s="28" t="inlineStr">
+        <is>
+          <t>B1004664-</t>
+        </is>
+      </c>
+      <c r="W23" s="28" t="inlineStr">
+        <is>
+          <t>B2010723-</t>
+        </is>
+      </c>
+      <c r="X23" s="28" t="inlineStr">
+        <is>
+          <t>B2010173-</t>
+        </is>
+      </c>
+      <c r="Y23" s="28" t="inlineStr">
+        <is>
+          <t>B2011329-</t>
+        </is>
+      </c>
+      <c r="Z23" s="28" t="inlineStr">
+        <is>
+          <t>B2000431-</t>
+        </is>
+      </c>
+      <c r="AA23" s="28" t="inlineStr">
+        <is>
+          <t>X1000300-</t>
+        </is>
+      </c>
+      <c r="AB23" s="28" t="inlineStr">
+        <is>
+          <t>B2010394-</t>
+        </is>
+      </c>
+      <c r="AC23" s="28" t="inlineStr">
+        <is>
+          <t>B1004668-</t>
+        </is>
+      </c>
+      <c r="AD23" s="28" t="inlineStr">
+        <is>
+          <t>B1008503-</t>
         </is>
       </c>
     </row>
@@ -3770,275 +3899,286 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>02272D</t>
+          <t>02021D</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>02271D</t>
+          <t>02022D</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>02252D</t>
+          <t>02041D</t>
         </is>
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>02251D</t>
+          <t>02042D</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>02232D</t>
+          <t>02061D</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>02231D</t>
+          <t>02062D</t>
         </is>
       </c>
       <c r="I24" s="11" t="inlineStr">
         <is>
-          <t>02212D</t>
+          <t>02081D</t>
         </is>
       </c>
       <c r="J24" s="11" t="inlineStr">
         <is>
-          <t>02211D</t>
+          <t>02082D</t>
         </is>
       </c>
       <c r="K24" s="11" t="inlineStr">
         <is>
-          <t>02192D</t>
+          <t>02101D</t>
         </is>
       </c>
       <c r="L24" s="11" t="inlineStr">
         <is>
-          <t>02191D</t>
+          <t>02102D</t>
         </is>
       </c>
       <c r="M24" s="11" t="inlineStr">
         <is>
-          <t>02172D</t>
+          <t>02121D</t>
         </is>
       </c>
       <c r="N24" s="11" t="inlineStr">
         <is>
-          <t>02171D</t>
+          <t>02122D</t>
         </is>
       </c>
       <c r="O24" s="11" t="inlineStr">
         <is>
-          <t>02152D</t>
+          <t>02141D</t>
         </is>
       </c>
       <c r="P24" s="11" t="inlineStr">
         <is>
-          <t>02151D</t>
+          <t>02142D</t>
         </is>
       </c>
       <c r="Q24" s="11" t="inlineStr">
         <is>
-          <t>02132D</t>
+          <t>02161D</t>
         </is>
       </c>
       <c r="R24" s="11" t="inlineStr">
         <is>
-          <t>02131D</t>
+          <t>02162D</t>
         </is>
       </c>
       <c r="S24" s="11" t="inlineStr">
         <is>
-          <t>02112D</t>
+          <t>02181D</t>
         </is>
       </c>
       <c r="T24" s="11" t="inlineStr">
         <is>
-          <t>02111D</t>
+          <t>02182D</t>
         </is>
       </c>
       <c r="U24" s="11" t="inlineStr">
         <is>
-          <t>02092D</t>
+          <t>02202D</t>
         </is>
       </c>
       <c r="V24" s="11" t="inlineStr">
         <is>
-          <t>02091D</t>
+          <t>02202D</t>
         </is>
       </c>
       <c r="W24" s="11" t="inlineStr">
         <is>
-          <t>02072D</t>
+          <t>02221D</t>
         </is>
       </c>
       <c r="X24" s="11" t="inlineStr">
         <is>
-          <t>02071D</t>
+          <t>02222D</t>
         </is>
       </c>
       <c r="Y24" s="11" t="inlineStr">
         <is>
-          <t>02052D</t>
+          <t>02241D</t>
         </is>
       </c>
       <c r="Z24" s="11" t="inlineStr">
         <is>
-          <t>02051D</t>
+          <t>02242D</t>
         </is>
       </c>
       <c r="AA24" s="11" t="inlineStr">
         <is>
-          <t>02032D</t>
+          <t>02261D</t>
         </is>
       </c>
       <c r="AB24" s="11" t="inlineStr">
         <is>
-          <t>02031D</t>
+          <t>02262D</t>
         </is>
       </c>
       <c r="AC24" s="11" t="inlineStr">
         <is>
-          <t>02012D</t>
+          <t>02281D</t>
         </is>
       </c>
       <c r="AD24" s="11" t="inlineStr">
         <is>
-          <t>02011D</t>
+          <t>02282D</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="n"/>
       <c r="B25" s="21" t="n"/>
-      <c r="C25" s="31" t="inlineStr">
-        <is>
-          <t>B1005012-</t>
-        </is>
-      </c>
-      <c r="D25" s="31" t="inlineStr">
-        <is>
-          <t>B2010498-</t>
-        </is>
-      </c>
-      <c r="E25" s="31" t="inlineStr">
-        <is>
-          <t>T2001879-</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="n"/>
-      <c r="G25" s="31" t="inlineStr">
-        <is>
-          <t>B2010724-</t>
-        </is>
-      </c>
-      <c r="H25" s="32" t="inlineStr">
-        <is>
-          <t>B2010728-
-B2011296-</t>
-        </is>
-      </c>
-      <c r="I25" s="31" t="inlineStr">
-        <is>
-          <t>B1008614-</t>
-        </is>
-      </c>
-      <c r="J25" s="31" t="inlineStr">
-        <is>
-          <t>B1009273-</t>
-        </is>
-      </c>
-      <c r="K25" s="11" t="n"/>
-      <c r="L25" s="31" t="inlineStr">
-        <is>
-          <t>B2010782-</t>
-        </is>
-      </c>
-      <c r="M25" s="31" t="inlineStr">
-        <is>
-          <t>B2010800-</t>
-        </is>
-      </c>
-      <c r="N25" s="31" t="inlineStr">
-        <is>
-          <t>T2002645-</t>
-        </is>
-      </c>
-      <c r="O25" s="31" t="inlineStr">
-        <is>
-          <t>B2010186-</t>
-        </is>
-      </c>
-      <c r="P25" s="31" t="inlineStr">
-        <is>
-          <t>B2011256-</t>
-        </is>
-      </c>
-      <c r="Q25" s="31" t="inlineStr">
-        <is>
-          <t>B2011264-</t>
-        </is>
-      </c>
-      <c r="R25" s="31" t="inlineStr">
-        <is>
-          <t>b1004000-</t>
-        </is>
-      </c>
-      <c r="S25" s="31" t="inlineStr">
-        <is>
-          <t>B2010129-</t>
-        </is>
-      </c>
-      <c r="T25" s="31" t="inlineStr">
-        <is>
-          <t>T2001540-</t>
-        </is>
-      </c>
-      <c r="U25" s="31" t="inlineStr">
-        <is>
-          <t>B2000870-</t>
-        </is>
-      </c>
-      <c r="V25" s="31" t="inlineStr">
-        <is>
-          <t>B2010731-</t>
-        </is>
-      </c>
-      <c r="W25" s="31" t="inlineStr">
-        <is>
-          <t>b2000024-</t>
-        </is>
-      </c>
-      <c r="X25" s="31" t="inlineStr">
-        <is>
-          <t>B1004207-</t>
-        </is>
-      </c>
-      <c r="Y25" s="31" t="inlineStr">
-        <is>
-          <t>B2010797-</t>
-        </is>
-      </c>
-      <c r="Z25" s="31" t="inlineStr">
-        <is>
-          <t>B1008462-</t>
-        </is>
-      </c>
-      <c r="AA25" s="11" t="n"/>
-      <c r="AB25" s="31" t="inlineStr">
-        <is>
-          <t>B2000670-</t>
-        </is>
-      </c>
-      <c r="AC25" s="31" t="inlineStr">
-        <is>
-          <t>B1005265-</t>
-        </is>
-      </c>
-      <c r="AD25" s="31" t="inlineStr">
-        <is>
-          <t>B2010474-</t>
+      <c r="C25" s="28" t="inlineStr">
+        <is>
+          <t>B1004136-</t>
+        </is>
+      </c>
+      <c r="D25" s="28" t="inlineStr">
+        <is>
+          <t>B2010860-</t>
+        </is>
+      </c>
+      <c r="E25" s="28" t="inlineStr">
+        <is>
+          <t>B2010904-</t>
+        </is>
+      </c>
+      <c r="F25" s="28" t="inlineStr">
+        <is>
+          <t>B2010804-</t>
+        </is>
+      </c>
+      <c r="G25" s="28" t="inlineStr">
+        <is>
+          <t>b1009024-</t>
+        </is>
+      </c>
+      <c r="H25" s="28" t="inlineStr">
+        <is>
+          <t>B1008220-</t>
+        </is>
+      </c>
+      <c r="I25" s="28" t="inlineStr">
+        <is>
+          <t>B1000326-</t>
+        </is>
+      </c>
+      <c r="J25" s="28" t="inlineStr">
+        <is>
+          <t>B1005488-</t>
+        </is>
+      </c>
+      <c r="K25" s="28" t="inlineStr">
+        <is>
+          <t>b2010176-</t>
+        </is>
+      </c>
+      <c r="L25" s="28" t="inlineStr">
+        <is>
+          <t>X1000306-</t>
+        </is>
+      </c>
+      <c r="M25" s="28" t="inlineStr">
+        <is>
+          <t>t1000337-</t>
+        </is>
+      </c>
+      <c r="N25" s="28" t="inlineStr">
+        <is>
+          <t>T2003125-</t>
+        </is>
+      </c>
+      <c r="O25" s="28" t="inlineStr">
+        <is>
+          <t>B1008805-</t>
+        </is>
+      </c>
+      <c r="P25" s="28" t="inlineStr">
+        <is>
+          <t>B1007262-</t>
+        </is>
+      </c>
+      <c r="Q25" s="28" t="inlineStr">
+        <is>
+          <t>M1010783-</t>
+        </is>
+      </c>
+      <c r="R25" s="28" t="inlineStr">
+        <is>
+          <t>T1001301-</t>
+        </is>
+      </c>
+      <c r="S25" s="28" t="inlineStr">
+        <is>
+          <t>B1001265-</t>
+        </is>
+      </c>
+      <c r="T25" s="28" t="inlineStr">
+        <is>
+          <t>B2000337-</t>
+        </is>
+      </c>
+      <c r="U25" s="28" t="inlineStr">
+        <is>
+          <t>b2011400-</t>
+        </is>
+      </c>
+      <c r="V25" s="28" t="inlineStr">
+        <is>
+          <t>b2011400-</t>
+        </is>
+      </c>
+      <c r="W25" s="28" t="inlineStr">
+        <is>
+          <t>B2010178-</t>
+        </is>
+      </c>
+      <c r="X25" s="28" t="inlineStr">
+        <is>
+          <t>B2011194-</t>
+        </is>
+      </c>
+      <c r="Y25" s="28" t="inlineStr">
+        <is>
+          <t>B2011419-</t>
+        </is>
+      </c>
+      <c r="Z25" s="28" t="inlineStr">
+        <is>
+          <t>t2001315-</t>
+        </is>
+      </c>
+      <c r="AA25" s="28" t="inlineStr">
+        <is>
+          <t>B2011222-</t>
+        </is>
+      </c>
+      <c r="AB25" s="28" t="inlineStr">
+        <is>
+          <t>B1008043-</t>
+        </is>
+      </c>
+      <c r="AC25" s="28" t="inlineStr">
+        <is>
+          <t>B2010838-</t>
+        </is>
+      </c>
+      <c r="AD25" s="28" t="inlineStr">
+        <is>
+          <t>t2001531-</t>
         </is>
       </c>
     </row>
@@ -4051,286 +4191,286 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>02272C</t>
+          <t>02021C</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>02271C</t>
+          <t>02022C</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>02252C</t>
+          <t>02041C</t>
         </is>
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>02251C</t>
+          <t>02042C</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>02232C</t>
+          <t>02061C</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>02231C</t>
+          <t>02062C</t>
         </is>
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
-          <t>02212C</t>
+          <t>02081C</t>
         </is>
       </c>
       <c r="J26" s="11" t="inlineStr">
         <is>
-          <t>02211C</t>
+          <t>02082C</t>
         </is>
       </c>
       <c r="K26" s="11" t="inlineStr">
         <is>
-          <t>02192C</t>
+          <t>02101C</t>
         </is>
       </c>
       <c r="L26" s="11" t="inlineStr">
         <is>
-          <t>02191C</t>
+          <t>02102C</t>
         </is>
       </c>
       <c r="M26" s="11" t="inlineStr">
         <is>
-          <t>02172C</t>
+          <t>02121C</t>
         </is>
       </c>
       <c r="N26" s="11" t="inlineStr">
         <is>
-          <t>02171C</t>
+          <t>02122C</t>
         </is>
       </c>
       <c r="O26" s="11" t="inlineStr">
         <is>
-          <t>02152C</t>
+          <t>02141C</t>
         </is>
       </c>
       <c r="P26" s="11" t="inlineStr">
         <is>
-          <t>02151C</t>
+          <t>02142C</t>
         </is>
       </c>
       <c r="Q26" s="11" t="inlineStr">
         <is>
-          <t>02132C</t>
+          <t>02161C</t>
         </is>
       </c>
       <c r="R26" s="11" t="inlineStr">
         <is>
-          <t>02131C</t>
+          <t>02162C</t>
         </is>
       </c>
       <c r="S26" s="11" t="inlineStr">
         <is>
-          <t>02112C</t>
+          <t>02181C</t>
         </is>
       </c>
       <c r="T26" s="11" t="inlineStr">
         <is>
-          <t>02111C</t>
+          <t>02182C</t>
         </is>
       </c>
       <c r="U26" s="11" t="inlineStr">
         <is>
-          <t>02092C</t>
+          <t>02202C</t>
         </is>
       </c>
       <c r="V26" s="11" t="inlineStr">
         <is>
-          <t>02091C</t>
+          <t>02202C</t>
         </is>
       </c>
       <c r="W26" s="11" t="inlineStr">
         <is>
-          <t>02072C</t>
+          <t>02221C</t>
         </is>
       </c>
       <c r="X26" s="11" t="inlineStr">
         <is>
-          <t>02071C</t>
+          <t>02222C</t>
         </is>
       </c>
       <c r="Y26" s="11" t="inlineStr">
         <is>
-          <t>02052C</t>
+          <t>02241C</t>
         </is>
       </c>
       <c r="Z26" s="11" t="inlineStr">
         <is>
-          <t>02051C</t>
+          <t>02242C</t>
         </is>
       </c>
       <c r="AA26" s="11" t="inlineStr">
         <is>
-          <t>02032C</t>
+          <t>02261C</t>
         </is>
       </c>
       <c r="AB26" s="11" t="inlineStr">
         <is>
-          <t>02031C</t>
+          <t>02262C</t>
         </is>
       </c>
       <c r="AC26" s="11" t="inlineStr">
         <is>
-          <t>02012C</t>
+          <t>02281C</t>
         </is>
       </c>
       <c r="AD26" s="11" t="inlineStr">
         <is>
-          <t>02011C</t>
+          <t>02282C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="n"/>
       <c r="B27" s="21" t="n"/>
-      <c r="C27" s="31" t="inlineStr">
-        <is>
-          <t>b2010461-</t>
-        </is>
-      </c>
-      <c r="D27" s="31" t="inlineStr">
-        <is>
-          <t>B1009272-</t>
-        </is>
-      </c>
-      <c r="E27" s="31" t="inlineStr">
-        <is>
-          <t>B2010418-</t>
-        </is>
-      </c>
-      <c r="F27" s="31" t="inlineStr">
-        <is>
-          <t>b1007877-</t>
-        </is>
-      </c>
-      <c r="G27" s="31" t="inlineStr">
-        <is>
-          <t>b2010226-</t>
-        </is>
-      </c>
-      <c r="H27" s="31" t="inlineStr">
-        <is>
-          <t>B2000210-</t>
-        </is>
-      </c>
-      <c r="I27" s="31" t="inlineStr">
-        <is>
-          <t>b1006835-</t>
-        </is>
-      </c>
-      <c r="J27" s="31" t="inlineStr">
-        <is>
-          <t>B1005389-</t>
-        </is>
-      </c>
-      <c r="K27" s="31" t="inlineStr">
-        <is>
-          <t>B1006289-</t>
-        </is>
-      </c>
-      <c r="L27" s="31" t="inlineStr">
-        <is>
-          <t>b1005534-</t>
-        </is>
-      </c>
-      <c r="M27" s="31" t="inlineStr">
-        <is>
-          <t>B2010066-</t>
-        </is>
-      </c>
-      <c r="N27" s="31" t="inlineStr">
-        <is>
-          <t>B1006219-</t>
-        </is>
-      </c>
-      <c r="O27" s="31" t="inlineStr">
-        <is>
-          <t>b1008804-</t>
-        </is>
-      </c>
-      <c r="P27" s="31" t="inlineStr">
-        <is>
-          <t>t2000166-</t>
-        </is>
-      </c>
-      <c r="Q27" s="31" t="inlineStr">
-        <is>
-          <t>b1006113-</t>
-        </is>
-      </c>
-      <c r="R27" s="31" t="inlineStr">
-        <is>
-          <t>B1008799-</t>
-        </is>
-      </c>
-      <c r="S27" s="31" t="inlineStr">
-        <is>
-          <t>T2000019-</t>
-        </is>
-      </c>
-      <c r="T27" s="31" t="inlineStr">
-        <is>
-          <t>B2010417-</t>
-        </is>
-      </c>
-      <c r="U27" s="31" t="inlineStr">
-        <is>
-          <t>B2010420-</t>
-        </is>
-      </c>
-      <c r="V27" s="31" t="inlineStr">
-        <is>
-          <t>t2001314-</t>
-        </is>
-      </c>
-      <c r="W27" s="31" t="inlineStr">
-        <is>
-          <t>B1007943-</t>
-        </is>
-      </c>
-      <c r="X27" s="31" t="inlineStr">
-        <is>
-          <t>B1001069-</t>
-        </is>
-      </c>
-      <c r="Y27" s="31" t="inlineStr">
-        <is>
-          <t>T1001035-</t>
-        </is>
-      </c>
-      <c r="Z27" s="31" t="inlineStr">
-        <is>
-          <t>B1007947-</t>
-        </is>
-      </c>
-      <c r="AA27" s="31" t="inlineStr">
-        <is>
-          <t>B2000316-</t>
-        </is>
-      </c>
-      <c r="AB27" s="31" t="inlineStr">
-        <is>
-          <t>p1230887-</t>
-        </is>
-      </c>
-      <c r="AC27" s="31" t="inlineStr">
-        <is>
-          <t>B2010961-</t>
-        </is>
-      </c>
-      <c r="AD27" s="31" t="inlineStr">
-        <is>
-          <t>B2000590-</t>
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>B2000154-</t>
+        </is>
+      </c>
+      <c r="D27" s="28" t="inlineStr">
+        <is>
+          <t>B2000303-</t>
+        </is>
+      </c>
+      <c r="E27" s="28" t="inlineStr">
+        <is>
+          <t>B2010913-</t>
+        </is>
+      </c>
+      <c r="F27" s="28" t="inlineStr">
+        <is>
+          <t>T2003150-</t>
+        </is>
+      </c>
+      <c r="G27" s="28" t="inlineStr">
+        <is>
+          <t>B2012333-</t>
+        </is>
+      </c>
+      <c r="H27" s="28" t="inlineStr">
+        <is>
+          <t>B2012340-</t>
+        </is>
+      </c>
+      <c r="I27" s="28" t="inlineStr">
+        <is>
+          <t>T2000168-</t>
+        </is>
+      </c>
+      <c r="J27" s="28" t="inlineStr">
+        <is>
+          <t>T2002670-</t>
+        </is>
+      </c>
+      <c r="K27" s="28" t="inlineStr">
+        <is>
+          <t>T2002680-</t>
+        </is>
+      </c>
+      <c r="L27" s="28" t="inlineStr">
+        <is>
+          <t>B2010803-</t>
+        </is>
+      </c>
+      <c r="M27" s="28" t="inlineStr">
+        <is>
+          <t>p1222384-</t>
+        </is>
+      </c>
+      <c r="N27" s="28" t="inlineStr">
+        <is>
+          <t>T2001270-</t>
+        </is>
+      </c>
+      <c r="O27" s="28" t="inlineStr">
+        <is>
+          <t>t2001440-</t>
+        </is>
+      </c>
+      <c r="P27" s="28" t="inlineStr">
+        <is>
+          <t>b1008802-</t>
+        </is>
+      </c>
+      <c r="Q27" s="28" t="inlineStr">
+        <is>
+          <t>B1004347-</t>
+        </is>
+      </c>
+      <c r="R27" s="28" t="inlineStr">
+        <is>
+          <t>T2001759-</t>
+        </is>
+      </c>
+      <c r="S27" s="28" t="inlineStr">
+        <is>
+          <t>B2011406-</t>
+        </is>
+      </c>
+      <c r="T27" s="28" t="inlineStr">
+        <is>
+          <t>T2002783-</t>
+        </is>
+      </c>
+      <c r="U27" s="28" t="inlineStr">
+        <is>
+          <t>m1012515-</t>
+        </is>
+      </c>
+      <c r="V27" s="28" t="inlineStr">
+        <is>
+          <t>m1012515-</t>
+        </is>
+      </c>
+      <c r="W27" s="28" t="inlineStr">
+        <is>
+          <t>B2010224-</t>
+        </is>
+      </c>
+      <c r="X27" s="28" t="inlineStr">
+        <is>
+          <t>X1000263-</t>
+        </is>
+      </c>
+      <c r="Y27" s="28" t="inlineStr">
+        <is>
+          <t>T2003390-</t>
+        </is>
+      </c>
+      <c r="Z27" s="28" t="inlineStr">
+        <is>
+          <t>T1001267-</t>
+        </is>
+      </c>
+      <c r="AA27" s="28" t="inlineStr">
+        <is>
+          <t>B2000955-</t>
+        </is>
+      </c>
+      <c r="AB27" s="28" t="inlineStr">
+        <is>
+          <t>t2001438-</t>
+        </is>
+      </c>
+      <c r="AC27" s="28" t="inlineStr">
+        <is>
+          <t>B1005263-</t>
+        </is>
+      </c>
+      <c r="AD27" s="28" t="inlineStr">
+        <is>
+          <t>B2010412-</t>
         </is>
       </c>
     </row>
@@ -4343,142 +4483,142 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>02272B</t>
+          <t>02021B</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>02271B</t>
+          <t>02022B</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>02252B</t>
+          <t>02041B</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>02251B</t>
+          <t>02042B</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>02232B</t>
+          <t>02061B</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>02231B</t>
+          <t>02062B</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>02212B</t>
+          <t>02081B</t>
         </is>
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>02211B</t>
+          <t>02082B</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
         <is>
-          <t>02192B</t>
+          <t>02101B</t>
         </is>
       </c>
       <c r="L28" s="11" t="inlineStr">
         <is>
-          <t>02191B</t>
+          <t>02102B</t>
         </is>
       </c>
       <c r="M28" s="11" t="inlineStr">
         <is>
-          <t>02172B</t>
+          <t>02121B</t>
         </is>
       </c>
       <c r="N28" s="11" t="inlineStr">
         <is>
-          <t>02171B</t>
+          <t>02122B</t>
         </is>
       </c>
       <c r="O28" s="11" t="inlineStr">
         <is>
-          <t>02152B</t>
+          <t>02141B</t>
         </is>
       </c>
       <c r="P28" s="11" t="inlineStr">
         <is>
-          <t>02151B</t>
+          <t>02142B</t>
         </is>
       </c>
       <c r="Q28" s="11" t="inlineStr">
         <is>
-          <t>02132B</t>
+          <t>02161B</t>
         </is>
       </c>
       <c r="R28" s="11" t="inlineStr">
         <is>
-          <t>02131B</t>
+          <t>02162B</t>
         </is>
       </c>
       <c r="S28" s="11" t="inlineStr">
         <is>
-          <t>02112B</t>
+          <t>02181B</t>
         </is>
       </c>
       <c r="T28" s="11" t="inlineStr">
         <is>
-          <t>02111B</t>
+          <t>02182B</t>
         </is>
       </c>
       <c r="U28" s="11" t="inlineStr">
         <is>
-          <t>02092B</t>
+          <t>02202B</t>
         </is>
       </c>
       <c r="V28" s="11" t="inlineStr">
         <is>
-          <t>02091B</t>
+          <t>02202B</t>
         </is>
       </c>
       <c r="W28" s="11" t="inlineStr">
         <is>
-          <t>02072B</t>
+          <t>02221B</t>
         </is>
       </c>
       <c r="X28" s="11" t="inlineStr">
         <is>
-          <t>02071B</t>
+          <t>02222B</t>
         </is>
       </c>
       <c r="Y28" s="11" t="inlineStr">
         <is>
-          <t>02052B</t>
+          <t>02241B</t>
         </is>
       </c>
       <c r="Z28" s="11" t="inlineStr">
         <is>
-          <t>02051B</t>
+          <t>02242B</t>
         </is>
       </c>
       <c r="AA28" s="11" t="inlineStr">
         <is>
-          <t>02032B</t>
+          <t>02261B</t>
         </is>
       </c>
       <c r="AB28" s="11" t="inlineStr">
         <is>
-          <t>02031B</t>
+          <t>02262B</t>
         </is>
       </c>
       <c r="AC28" s="11" t="inlineStr">
         <is>
-          <t>02012B</t>
+          <t>02281B</t>
         </is>
       </c>
       <c r="AD28" s="11" t="inlineStr">
         <is>
-          <t>02011B</t>
+          <t>02282B</t>
         </is>
       </c>
     </row>
@@ -4487,142 +4627,142 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="29" t="inlineStr">
         <is>
-          <t>B1008563-</t>
+          <t>t2001233-</t>
         </is>
       </c>
       <c r="D29" s="29" t="inlineStr">
         <is>
-          <t>B2010806-</t>
+          <t>B2010369-</t>
         </is>
       </c>
       <c r="E29" s="29" t="inlineStr">
         <is>
-          <t>B1005251-</t>
+          <t>B2000848-</t>
         </is>
       </c>
       <c r="F29" s="29" t="inlineStr">
         <is>
-          <t>t2001303-</t>
+          <t>B2012331-</t>
         </is>
       </c>
       <c r="G29" s="29" t="inlineStr">
         <is>
-          <t>B1008625-</t>
+          <t>B2010924-</t>
         </is>
       </c>
       <c r="H29" s="29" t="inlineStr">
         <is>
-          <t>B1007584-</t>
+          <t>X1000249-</t>
         </is>
       </c>
       <c r="I29" s="29" t="inlineStr">
         <is>
-          <t>t2001312-</t>
+          <t>B2012268-</t>
         </is>
       </c>
       <c r="J29" s="29" t="inlineStr">
         <is>
-          <t>b1007783-</t>
+          <t>P1213681-</t>
         </is>
       </c>
       <c r="K29" s="29" t="inlineStr">
         <is>
-          <t>B2010966-</t>
+          <t>x1000071-</t>
         </is>
       </c>
       <c r="L29" s="29" t="inlineStr">
         <is>
-          <t>B1000183-</t>
+          <t>B2011181-</t>
         </is>
       </c>
       <c r="M29" s="29" t="inlineStr">
         <is>
-          <t>b1008659-</t>
+          <t>B2010222-</t>
         </is>
       </c>
       <c r="N29" s="29" t="inlineStr">
         <is>
-          <t>B1006748-</t>
+          <t>t2001739-</t>
         </is>
       </c>
       <c r="O29" s="29" t="inlineStr">
         <is>
-          <t>X1000093-</t>
+          <t>t2003013-</t>
         </is>
       </c>
       <c r="P29" s="29" t="inlineStr">
         <is>
-          <t>B1008778-</t>
+          <t>B1008716-</t>
         </is>
       </c>
       <c r="Q29" s="29" t="inlineStr">
         <is>
-          <t>T1000910-</t>
+          <t>X1000235-</t>
         </is>
       </c>
       <c r="R29" s="29" t="inlineStr">
         <is>
-          <t>B2009988-</t>
+          <t>X1000069-</t>
         </is>
       </c>
       <c r="S29" s="29" t="inlineStr">
         <is>
-          <t>B1008721-</t>
+          <t>B2000136-</t>
         </is>
       </c>
       <c r="T29" s="29" t="inlineStr">
         <is>
-          <t>B1005930-</t>
+          <t>B1007898-</t>
         </is>
       </c>
       <c r="U29" s="29" t="inlineStr">
         <is>
-          <t>B2000333-</t>
+          <t>B1006910-</t>
         </is>
       </c>
       <c r="V29" s="29" t="inlineStr">
         <is>
-          <t>T2001860-</t>
+          <t>B1006910-</t>
         </is>
       </c>
       <c r="W29" s="29" t="inlineStr">
         <is>
-          <t>b2000518-</t>
+          <t>X1000185-</t>
         </is>
       </c>
       <c r="X29" s="29" t="inlineStr">
         <is>
-          <t>B2000315-</t>
+          <t>B2012229-</t>
         </is>
       </c>
       <c r="Y29" s="29" t="inlineStr">
         <is>
-          <t>B1008810-</t>
+          <t>T2001351-</t>
         </is>
       </c>
       <c r="Z29" s="29" t="inlineStr">
         <is>
-          <t>b1004219-</t>
+          <t>B1008642-</t>
         </is>
       </c>
       <c r="AA29" s="29" t="inlineStr">
         <is>
-          <t>B2000981-</t>
+          <t>B1006222-</t>
         </is>
       </c>
       <c r="AB29" s="29" t="inlineStr">
         <is>
-          <t>B2010917-</t>
+          <t>T2001955-</t>
         </is>
       </c>
       <c r="AC29" s="29" t="inlineStr">
         <is>
-          <t>b1008815-</t>
+          <t>B2010755-</t>
         </is>
       </c>
       <c r="AD29" s="29" t="inlineStr">
         <is>
-          <t>B1008841-</t>
+          <t>B1006728-</t>
         </is>
       </c>
     </row>
@@ -4635,286 +4775,286 @@
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>02272A</t>
+          <t>02021A</t>
         </is>
       </c>
       <c r="D30" s="20" t="inlineStr">
         <is>
-          <t>02271A</t>
+          <t>02022A</t>
         </is>
       </c>
       <c r="E30" s="20" t="inlineStr">
         <is>
-          <t>02252A</t>
+          <t>02041A</t>
         </is>
       </c>
       <c r="F30" s="20" t="inlineStr">
         <is>
-          <t>02251A</t>
+          <t>02042A</t>
         </is>
       </c>
       <c r="G30" s="20" t="inlineStr">
         <is>
-          <t>02232A</t>
+          <t>02061A</t>
         </is>
       </c>
       <c r="H30" s="20" t="inlineStr">
         <is>
-          <t>02231A</t>
+          <t>02062A</t>
         </is>
       </c>
       <c r="I30" s="20" t="inlineStr">
         <is>
-          <t>02212A</t>
+          <t>02081A</t>
         </is>
       </c>
       <c r="J30" s="20" t="inlineStr">
         <is>
-          <t>02211A</t>
+          <t>02082A</t>
         </is>
       </c>
       <c r="K30" s="20" t="inlineStr">
         <is>
-          <t>02192A</t>
+          <t>02101A</t>
         </is>
       </c>
       <c r="L30" s="20" t="inlineStr">
         <is>
-          <t>02191A</t>
+          <t>02102A</t>
         </is>
       </c>
       <c r="M30" s="20" t="inlineStr">
         <is>
-          <t>02172A</t>
+          <t>02121A</t>
         </is>
       </c>
       <c r="N30" s="20" t="inlineStr">
         <is>
-          <t>02171A</t>
+          <t>02122A</t>
         </is>
       </c>
       <c r="O30" s="20" t="inlineStr">
         <is>
-          <t>02152A</t>
+          <t>02141A</t>
         </is>
       </c>
       <c r="P30" s="20" t="inlineStr">
         <is>
-          <t>02151A</t>
+          <t>02142A</t>
         </is>
       </c>
       <c r="Q30" s="20" t="inlineStr">
         <is>
-          <t>02132A</t>
+          <t>02161A</t>
         </is>
       </c>
       <c r="R30" s="20" t="inlineStr">
         <is>
-          <t>02131A</t>
+          <t>02162A</t>
         </is>
       </c>
       <c r="S30" s="20" t="inlineStr">
         <is>
-          <t>02112A</t>
+          <t>02181A</t>
         </is>
       </c>
       <c r="T30" s="20" t="inlineStr">
         <is>
-          <t>02111A</t>
+          <t>02182A</t>
         </is>
       </c>
       <c r="U30" s="20" t="inlineStr">
         <is>
-          <t>02092A</t>
+          <t>02202A</t>
         </is>
       </c>
       <c r="V30" s="20" t="inlineStr">
         <is>
-          <t>02091A</t>
+          <t>02202A</t>
         </is>
       </c>
       <c r="W30" s="20" t="inlineStr">
         <is>
-          <t>02072A</t>
+          <t>02221A</t>
         </is>
       </c>
       <c r="X30" s="20" t="inlineStr">
         <is>
-          <t>02071A</t>
+          <t>02222A</t>
         </is>
       </c>
       <c r="Y30" s="20" t="inlineStr">
         <is>
-          <t>02052A</t>
+          <t>02241A</t>
         </is>
       </c>
       <c r="Z30" s="20" t="inlineStr">
         <is>
-          <t>02051A</t>
+          <t>02242A</t>
         </is>
       </c>
       <c r="AA30" s="20" t="inlineStr">
         <is>
-          <t>02032A</t>
+          <t>02261A</t>
         </is>
       </c>
       <c r="AB30" s="20" t="inlineStr">
         <is>
-          <t>02031A</t>
+          <t>02262A</t>
         </is>
       </c>
       <c r="AC30" s="20" t="inlineStr">
         <is>
-          <t>02012A</t>
+          <t>02281A</t>
         </is>
       </c>
       <c r="AD30" s="20" t="inlineStr">
         <is>
-          <t>02011A</t>
+          <t>02282A</t>
         </is>
       </c>
     </row>
     <row r="31" ht="21.5" customHeight="1">
       <c r="A31" s="23" t="n"/>
       <c r="B31" s="21" t="n"/>
-      <c r="C31" s="27" t="inlineStr">
-        <is>
-          <t>B1007141-</t>
-        </is>
-      </c>
-      <c r="D31" s="27" t="inlineStr">
-        <is>
-          <t>B1007144-</t>
-        </is>
-      </c>
-      <c r="E31" s="27" t="inlineStr">
-        <is>
-          <t>b2009993-</t>
-        </is>
-      </c>
-      <c r="F31" s="27" t="inlineStr">
-        <is>
-          <t>B2010406-</t>
-        </is>
-      </c>
-      <c r="G31" s="27" t="inlineStr">
-        <is>
-          <t>B1007151-</t>
-        </is>
-      </c>
-      <c r="H31" s="27" t="inlineStr">
-        <is>
-          <t>B1007148-</t>
-        </is>
-      </c>
-      <c r="I31" s="27" t="inlineStr">
-        <is>
-          <t>B1007139-</t>
-        </is>
-      </c>
-      <c r="J31" s="27" t="inlineStr">
-        <is>
-          <t>B1008969-</t>
-        </is>
-      </c>
-      <c r="K31" s="27" t="inlineStr">
-        <is>
-          <t>B2010880-</t>
-        </is>
-      </c>
-      <c r="L31" s="27" t="inlineStr">
-        <is>
-          <t>B2011284-</t>
-        </is>
-      </c>
-      <c r="M31" s="27" t="inlineStr">
-        <is>
-          <t>B1007734-</t>
-        </is>
-      </c>
-      <c r="N31" s="27" t="inlineStr">
-        <is>
-          <t>B2010100-</t>
-        </is>
-      </c>
-      <c r="O31" s="27" t="inlineStr">
-        <is>
-          <t>B1007184-</t>
-        </is>
-      </c>
-      <c r="P31" s="27" t="inlineStr">
-        <is>
-          <t>B1008971-</t>
-        </is>
-      </c>
-      <c r="Q31" s="27" t="inlineStr">
-        <is>
-          <t>B1007192-</t>
-        </is>
-      </c>
-      <c r="R31" s="27" t="inlineStr">
-        <is>
-          <t>B1008967-</t>
-        </is>
-      </c>
-      <c r="S31" s="27" t="inlineStr">
-        <is>
-          <t>B1007194-</t>
-        </is>
-      </c>
-      <c r="T31" s="27" t="inlineStr">
-        <is>
-          <t>B1007200-</t>
-        </is>
-      </c>
-      <c r="U31" s="27" t="inlineStr">
-        <is>
-          <t>B1008965-</t>
-        </is>
-      </c>
-      <c r="V31" s="27" t="inlineStr">
-        <is>
-          <t>B1007146-</t>
-        </is>
-      </c>
-      <c r="W31" s="27" t="inlineStr">
-        <is>
-          <t>B1007185-</t>
-        </is>
-      </c>
-      <c r="X31" s="27" t="inlineStr">
-        <is>
-          <t>P1232752-</t>
-        </is>
-      </c>
-      <c r="Y31" s="27" t="inlineStr">
-        <is>
-          <t>B1009134-</t>
-        </is>
-      </c>
-      <c r="Z31" s="27" t="inlineStr">
-        <is>
-          <t>P1225265-</t>
-        </is>
-      </c>
-      <c r="AA31" s="27" t="inlineStr">
-        <is>
-          <t>B1007206-</t>
-        </is>
-      </c>
-      <c r="AB31" s="27" t="inlineStr">
-        <is>
-          <t>b2010595-</t>
-        </is>
-      </c>
-      <c r="AC31" s="27" t="inlineStr">
-        <is>
-          <t>B1008963-</t>
-        </is>
-      </c>
-      <c r="AD31" s="27" t="inlineStr">
-        <is>
-          <t>B1008951-</t>
+      <c r="C31" s="24" t="inlineStr">
+        <is>
+          <t>B2011508-</t>
+        </is>
+      </c>
+      <c r="D31" s="24" t="inlineStr">
+        <is>
+          <t>M1009203-</t>
+        </is>
+      </c>
+      <c r="E31" s="24" t="inlineStr">
+        <is>
+          <t>b1008049-</t>
+        </is>
+      </c>
+      <c r="F31" s="24" t="inlineStr">
+        <is>
+          <t>B2010193-</t>
+        </is>
+      </c>
+      <c r="G31" s="24" t="inlineStr">
+        <is>
+          <t>M1013062-</t>
+        </is>
+      </c>
+      <c r="H31" s="24" t="inlineStr">
+        <is>
+          <t>b1008661-</t>
+        </is>
+      </c>
+      <c r="I31" s="24" t="inlineStr">
+        <is>
+          <t>P1226599-</t>
+        </is>
+      </c>
+      <c r="J31" s="24" t="inlineStr">
+        <is>
+          <t>B2011068-</t>
+        </is>
+      </c>
+      <c r="K31" s="24" t="inlineStr">
+        <is>
+          <t>b1008268-</t>
+        </is>
+      </c>
+      <c r="L31" s="24" t="inlineStr">
+        <is>
+          <t>M1016635-</t>
+        </is>
+      </c>
+      <c r="M31" s="24" t="inlineStr">
+        <is>
+          <t>B1007628-</t>
+        </is>
+      </c>
+      <c r="N31" s="24" t="inlineStr">
+        <is>
+          <t>T1000928-</t>
+        </is>
+      </c>
+      <c r="O31" s="24" t="inlineStr">
+        <is>
+          <t>B2012225-</t>
+        </is>
+      </c>
+      <c r="P31" s="24" t="inlineStr">
+        <is>
+          <t>B1007189-</t>
+        </is>
+      </c>
+      <c r="Q31" s="24" t="inlineStr">
+        <is>
+          <t>B1007183-</t>
+        </is>
+      </c>
+      <c r="R31" s="24" t="inlineStr">
+        <is>
+          <t>B1007198-</t>
+        </is>
+      </c>
+      <c r="S31" s="24" t="inlineStr">
+        <is>
+          <t>B1008970-</t>
+        </is>
+      </c>
+      <c r="T31" s="24" t="inlineStr">
+        <is>
+          <t>B1007134-</t>
+        </is>
+      </c>
+      <c r="U31" s="24" t="inlineStr">
+        <is>
+          <t>B1007137-</t>
+        </is>
+      </c>
+      <c r="V31" s="24" t="inlineStr">
+        <is>
+          <t>B1007137-</t>
+        </is>
+      </c>
+      <c r="W31" s="24" t="inlineStr">
+        <is>
+          <t>B2010728-</t>
+        </is>
+      </c>
+      <c r="X31" s="24" t="inlineStr">
+        <is>
+          <t>B2010540-</t>
+        </is>
+      </c>
+      <c r="Y31" s="24" t="inlineStr">
+        <is>
+          <t>B1007116-</t>
+        </is>
+      </c>
+      <c r="Z31" s="24" t="inlineStr">
+        <is>
+          <t>B1008973-</t>
+        </is>
+      </c>
+      <c r="AA31" s="24" t="inlineStr">
+        <is>
+          <t>B2010965-</t>
+        </is>
+      </c>
+      <c r="AB31" s="24" t="inlineStr">
+        <is>
+          <t>B2010603-</t>
+        </is>
+      </c>
+      <c r="AC31" s="24" t="inlineStr">
+        <is>
+          <t>B2011493-</t>
+        </is>
+      </c>
+      <c r="AD31" s="24" t="inlineStr">
+        <is>
+          <t>B1006957-</t>
         </is>
       </c>
     </row>
